--- a/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9947322684826009</v>
+        <v>0.9947322684826022</v>
       </c>
       <c r="D2">
-        <v>1.013418483589292</v>
+        <v>1.013418483589294</v>
       </c>
       <c r="E2">
-        <v>1.002220983068393</v>
+        <v>1.002220983068395</v>
       </c>
       <c r="F2">
-        <v>1.001485665849911</v>
+        <v>1.001485665849912</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04239615657228</v>
+        <v>1.042396156572281</v>
       </c>
       <c r="J2">
-        <v>1.017071686219255</v>
+        <v>1.017071686219256</v>
       </c>
       <c r="K2">
-        <v>1.02469399008533</v>
+        <v>1.024693990085332</v>
       </c>
       <c r="L2">
-        <v>1.01364946254815</v>
+        <v>1.013649462548151</v>
       </c>
       <c r="M2">
-        <v>1.012924341719302</v>
+        <v>1.012924341719303</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,10 +459,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002090213716384</v>
+        <v>1.002090213716383</v>
       </c>
       <c r="D3">
-        <v>1.018921236307458</v>
+        <v>1.018921236307457</v>
       </c>
       <c r="E3">
         <v>1.008572716059843</v>
@@ -477,13 +477,13 @@
         <v>1.045157806232812</v>
       </c>
       <c r="J3">
-        <v>1.022524059131479</v>
+        <v>1.022524059131478</v>
       </c>
       <c r="K3">
-        <v>1.029317607854514</v>
+        <v>1.029317607854513</v>
       </c>
       <c r="L3">
-        <v>1.019097070002329</v>
+        <v>1.019097070002328</v>
       </c>
       <c r="M3">
         <v>1.020157375254062</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006703250224015</v>
+        <v>1.006703250224013</v>
       </c>
       <c r="D4">
-        <v>1.022373087730016</v>
+        <v>1.022373087730014</v>
       </c>
       <c r="E4">
-        <v>1.012559517406951</v>
+        <v>1.012559517406949</v>
       </c>
       <c r="F4">
-        <v>1.014765393240489</v>
+        <v>1.014765393240487</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046874342917488</v>
+        <v>1.046874342917487</v>
       </c>
       <c r="J4">
-        <v>1.025937026685367</v>
+        <v>1.025937026685365</v>
       </c>
       <c r="K4">
-        <v>1.032208784729648</v>
+        <v>1.032208784729646</v>
       </c>
       <c r="L4">
-        <v>1.022508687025795</v>
+        <v>1.022508687025793</v>
       </c>
       <c r="M4">
-        <v>1.024688820286729</v>
+        <v>1.024688820286727</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047579916480415</v>
+        <v>1.047579916480416</v>
       </c>
       <c r="J5">
         <v>1.027345767014104</v>
@@ -562,7 +562,7 @@
         <v>1.02391726260766</v>
       </c>
       <c r="M5">
-        <v>1.026560267096783</v>
+        <v>1.026560267096784</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00892725900801</v>
+        <v>1.008927259008009</v>
       </c>
       <c r="D6">
-        <v>1.024037701057781</v>
+        <v>1.02403770105778</v>
       </c>
       <c r="E6">
-        <v>1.014482870977775</v>
+        <v>1.014482870977774</v>
       </c>
       <c r="F6">
-        <v>1.017234150172573</v>
+        <v>1.017234150172572</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.047697465792117</v>
       </c>
       <c r="J6">
-        <v>1.027580812536967</v>
+        <v>1.027580812536966</v>
       </c>
       <c r="K6">
-        <v>1.033600340238596</v>
+        <v>1.033600340238595</v>
       </c>
       <c r="L6">
-        <v>1.024152303778165</v>
+        <v>1.024152303778164</v>
       </c>
       <c r="M6">
-        <v>1.026872578865539</v>
+        <v>1.026872578865538</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,7 +629,7 @@
         <v>1.046883832913056</v>
       </c>
       <c r="J7">
-        <v>1.025955950922795</v>
+        <v>1.025955950922796</v>
       </c>
       <c r="K7">
         <v>1.032224808663317</v>
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9972508517357889</v>
+        <v>0.9972508517357896</v>
       </c>
       <c r="D8">
-        <v>1.015301569245074</v>
+        <v>1.015301569245075</v>
       </c>
       <c r="E8">
-        <v>1.004394124811912</v>
+        <v>1.004394124811913</v>
       </c>
       <c r="F8">
         <v>1.004278561614284</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04334455998055</v>
+        <v>1.043344559980551</v>
       </c>
       <c r="J8">
-        <v>1.018939102607518</v>
+        <v>1.018939102607519</v>
       </c>
       <c r="K8">
-        <v>1.02627818461873</v>
+        <v>1.026278184618731</v>
       </c>
       <c r="L8">
-        <v>1.015514902059107</v>
+        <v>1.015514902059108</v>
       </c>
       <c r="M8">
         <v>1.015400887300912</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9793140302791394</v>
+        <v>0.9793140302791384</v>
       </c>
       <c r="D9">
-        <v>1.001904002481754</v>
+        <v>1.001904002481753</v>
       </c>
       <c r="E9">
-        <v>0.9889409095172488</v>
+        <v>0.9889409095172479</v>
       </c>
       <c r="F9">
-        <v>0.9843958368004326</v>
+        <v>0.9843958368004317</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036528191010183</v>
       </c>
       <c r="J9">
-        <v>1.005619022627406</v>
+        <v>1.005619022627405</v>
       </c>
       <c r="K9">
-        <v>1.014966263922067</v>
+        <v>1.014966263922066</v>
       </c>
       <c r="L9">
-        <v>1.002215997797947</v>
+        <v>1.002215997797946</v>
       </c>
       <c r="M9">
-        <v>0.9977472578811357</v>
+        <v>0.9977472578811349</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.966364157613643</v>
+        <v>0.9663641576136435</v>
       </c>
       <c r="D10">
-        <v>0.9922548863204289</v>
+        <v>0.9922548863204291</v>
       </c>
       <c r="E10">
-        <v>0.9778186635184879</v>
+        <v>0.977818663518488</v>
       </c>
       <c r="F10">
-        <v>0.9700463642369622</v>
+        <v>0.9700463642369624</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>1.03153025396105</v>
       </c>
       <c r="J10">
-        <v>0.9959789133197468</v>
+        <v>0.9959789133197472</v>
       </c>
       <c r="K10">
         <v>1.006765403585067</v>
@@ -752,7 +752,7 @@
         <v>0.9926003005535834</v>
       </c>
       <c r="M10">
-        <v>0.9849783538570624</v>
+        <v>0.9849783538570626</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9604784954813815</v>
+        <v>0.9604784954813813</v>
       </c>
       <c r="D11">
-        <v>0.9878773169561913</v>
+        <v>0.9878773169561907</v>
       </c>
       <c r="E11">
-        <v>0.9727734810281622</v>
+        <v>0.9727734810281616</v>
       </c>
       <c r="F11">
-        <v>0.9635240981889812</v>
+        <v>0.9635240981889807</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.029241513787611</v>
       </c>
       <c r="J11">
-        <v>0.9915931286299864</v>
+        <v>0.9915931286299861</v>
       </c>
       <c r="K11">
         <v>1.003031528558848</v>
       </c>
       <c r="L11">
-        <v>0.988227786803068</v>
+        <v>0.9882277868030673</v>
       </c>
       <c r="M11">
-        <v>0.9791683157091646</v>
+        <v>0.979168315709164</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9582461941207552</v>
+        <v>0.9582461941207563</v>
       </c>
       <c r="D12">
-        <v>0.9862184146313153</v>
+        <v>0.9862184146313163</v>
       </c>
       <c r="E12">
-        <v>0.9708615896189291</v>
+        <v>0.9708615896189302</v>
       </c>
       <c r="F12">
-        <v>0.9610500944728423</v>
+        <v>0.9610500944728438</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028370959733763</v>
+        <v>1.028370959733764</v>
       </c>
       <c r="J12">
-        <v>0.9899291495312134</v>
+        <v>0.9899291495312147</v>
       </c>
       <c r="K12">
-        <v>1.001614498257977</v>
+        <v>1.001614498257978</v>
       </c>
       <c r="L12">
-        <v>0.9865691686824888</v>
+        <v>0.9865691686824901</v>
       </c>
       <c r="M12">
-        <v>0.9769635939131057</v>
+        <v>0.9769635939131073</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9587271924726396</v>
+        <v>0.9587271924726407</v>
       </c>
       <c r="D13">
-        <v>0.986575793958484</v>
+        <v>0.9865757939584853</v>
       </c>
       <c r="E13">
-        <v>0.9712734721348435</v>
+        <v>0.9712734721348445</v>
       </c>
       <c r="F13">
-        <v>0.9615831874816098</v>
+        <v>0.9615831874816105</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02855865017487</v>
+        <v>1.028558650174871</v>
       </c>
       <c r="J13">
-        <v>0.9902877131558496</v>
+        <v>0.9902877131558508</v>
       </c>
       <c r="K13">
-        <v>1.001919864673754</v>
+        <v>1.001919864673755</v>
       </c>
       <c r="L13">
-        <v>0.9869265623745627</v>
+        <v>0.9869265623745637</v>
       </c>
       <c r="M13">
-        <v>0.9774387013240959</v>
+        <v>0.9774387013240968</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9602949403351663</v>
+        <v>0.9602949403351658</v>
       </c>
       <c r="D14">
-        <v>0.9877408806087201</v>
+        <v>0.9877408806087196</v>
       </c>
       <c r="E14">
-        <v>0.9726162380933562</v>
+        <v>0.9726162380933561</v>
       </c>
       <c r="F14">
-        <v>0.9633206748642443</v>
+        <v>0.963320674864244</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.029169980620461</v>
       </c>
       <c r="J14">
-        <v>0.9914563152565067</v>
+        <v>0.9914563152565063</v>
       </c>
       <c r="K14">
-        <v>1.002915027043832</v>
+        <v>1.002915027043831</v>
       </c>
       <c r="L14">
-        <v>0.9880914076033609</v>
+        <v>0.9880914076033608</v>
       </c>
       <c r="M14">
-        <v>0.9789870513763962</v>
+        <v>0.9789870513763957</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -918,13 +918,13 @@
         <v>0.9612546331906495</v>
       </c>
       <c r="D15">
-        <v>0.9884542780656523</v>
+        <v>0.9884542780656527</v>
       </c>
       <c r="E15">
-        <v>0.9734384285265537</v>
+        <v>0.973438428526554</v>
       </c>
       <c r="F15">
-        <v>0.9643842343678597</v>
+        <v>0.96438423436786</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.0295438816354</v>
       </c>
       <c r="J15">
-        <v>0.9921716036233351</v>
+        <v>0.9921716036233353</v>
       </c>
       <c r="K15">
         <v>1.003524105393155</v>
       </c>
       <c r="L15">
-        <v>0.9888044392593208</v>
+        <v>0.9888044392593216</v>
       </c>
       <c r="M15">
-        <v>0.9799347215571941</v>
+        <v>0.9799347215571943</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9667485536830982</v>
+        <v>0.9667485536830996</v>
       </c>
       <c r="D16">
-        <v>0.9925409696145122</v>
+        <v>0.9925409696145133</v>
       </c>
       <c r="E16">
-        <v>0.9781483832388187</v>
+        <v>0.9781483832388198</v>
       </c>
       <c r="F16">
-        <v>0.9704723127928552</v>
+        <v>0.9704723127928562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031679385674619</v>
+        <v>1.03167938567462</v>
       </c>
       <c r="J16">
-        <v>0.9962652698329116</v>
+        <v>0.9962652698329131</v>
       </c>
       <c r="K16">
-        <v>1.007009139846037</v>
+        <v>1.007009139846038</v>
       </c>
       <c r="L16">
-        <v>0.9928858353375685</v>
+        <v>0.9928858353375697</v>
       </c>
       <c r="M16">
-        <v>0.9853576654082167</v>
+        <v>0.9853576654082176</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9701173949563984</v>
+        <v>0.9701173949564001</v>
       </c>
       <c r="D17">
-        <v>0.9950491142002043</v>
+        <v>0.9950491142002056</v>
       </c>
       <c r="E17">
-        <v>0.9810391654825755</v>
+        <v>0.981039165482577</v>
       </c>
       <c r="F17">
-        <v>0.9742052457891872</v>
+        <v>0.9742052457891885</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032984448412281</v>
+        <v>1.032984448412282</v>
       </c>
       <c r="J17">
-        <v>0.9987744112339372</v>
+        <v>0.9987744112339386</v>
       </c>
       <c r="K17">
-        <v>1.009144510832335</v>
+        <v>1.009144510832336</v>
       </c>
       <c r="L17">
-        <v>0.9953880201236124</v>
+        <v>0.9953880201236137</v>
       </c>
       <c r="M17">
-        <v>0.9886811892944534</v>
+        <v>0.9886811892944547</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9720558534229663</v>
+        <v>0.9720558534229665</v>
       </c>
       <c r="D18">
-        <v>0.9964930466524935</v>
+        <v>0.9964930466524937</v>
       </c>
       <c r="E18">
-        <v>0.9827034550973274</v>
+        <v>0.9827034550973275</v>
       </c>
       <c r="F18">
-        <v>0.9763531723997204</v>
+        <v>0.9763531723997207</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1053,10 +1053,10 @@
         <v>1.010372590505463</v>
       </c>
       <c r="L18">
-        <v>0.9968275814844343</v>
+        <v>0.9968275814844345</v>
       </c>
       <c r="M18">
-        <v>0.9905929587140818</v>
+        <v>0.990592958714082</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9727124384689737</v>
+        <v>0.9727124384689727</v>
       </c>
       <c r="D19">
-        <v>0.9969822452218552</v>
+        <v>0.9969822452218551</v>
       </c>
       <c r="E19">
-        <v>0.9832673250699802</v>
+        <v>0.9832673250699796</v>
       </c>
       <c r="F19">
-        <v>0.9770807066456182</v>
+        <v>0.9770807066456172</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1088,13 +1088,13 @@
         <v>1.000706585224133</v>
       </c>
       <c r="K19">
-        <v>1.01078844881012</v>
+        <v>1.010788448810119</v>
       </c>
       <c r="L19">
-        <v>0.9973151428114734</v>
+        <v>0.9973151428114726</v>
       </c>
       <c r="M19">
-        <v>0.9912404026723716</v>
+        <v>0.9912404026723706</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9697587233546385</v>
+        <v>0.9697587233546386</v>
       </c>
       <c r="D20">
-        <v>0.9947820017282279</v>
+        <v>0.9947820017282281</v>
       </c>
       <c r="E20">
-        <v>0.9807312958693254</v>
+        <v>0.9807312958693255</v>
       </c>
       <c r="F20">
-        <v>0.9738078149257778</v>
+        <v>0.9738078149257779</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         <v>1.008917228111817</v>
       </c>
       <c r="L20">
-        <v>0.9951216408394749</v>
+        <v>0.995121640839475</v>
       </c>
       <c r="M20">
-        <v>0.9883274069599082</v>
+        <v>0.9883274069599083</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.959834588001376</v>
+        <v>0.9598345880013731</v>
       </c>
       <c r="D21">
-        <v>0.9873987247148274</v>
+        <v>0.9873987247148248</v>
       </c>
       <c r="E21">
-        <v>0.972221903054906</v>
+        <v>0.9722219030549032</v>
       </c>
       <c r="F21">
-        <v>0.962810488849746</v>
+        <v>0.9628104888497441</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028990537392978</v>
+        <v>1.028990537392976</v>
       </c>
       <c r="J21">
-        <v>0.9911131818744074</v>
+        <v>0.9911131818744048</v>
       </c>
       <c r="K21">
-        <v>1.002622830543505</v>
+        <v>1.002622830543502</v>
       </c>
       <c r="L21">
-        <v>0.987749368387057</v>
+        <v>0.9877493683870541</v>
       </c>
       <c r="M21">
-        <v>0.978532426229736</v>
+        <v>0.9785324262297341</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9533255353371349</v>
+        <v>0.9533255353371325</v>
       </c>
       <c r="D22">
-        <v>0.9825645795058481</v>
+        <v>0.982564579505846</v>
       </c>
       <c r="E22">
-        <v>0.966650420419441</v>
+        <v>0.9666504204194388</v>
       </c>
       <c r="F22">
-        <v>0.9555959595900936</v>
+        <v>0.9555959595900906</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026447527226141</v>
+        <v>1.02644752722614</v>
       </c>
       <c r="J22">
-        <v>0.986260367165816</v>
+        <v>0.9862603671658138</v>
       </c>
       <c r="K22">
-        <v>0.9984895330335339</v>
+        <v>0.9984895330335319</v>
       </c>
       <c r="L22">
-        <v>0.9829128092811215</v>
+        <v>0.9829128092811193</v>
       </c>
       <c r="M22">
-        <v>0.9721015556497101</v>
+        <v>0.9721015556497076</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.956803243734088</v>
+        <v>0.9568032437340859</v>
       </c>
       <c r="D23">
-        <v>0.9851465356774639</v>
+        <v>0.9851465356774617</v>
       </c>
       <c r="E23">
-        <v>0.9696262331536248</v>
+        <v>0.9696262331536228</v>
       </c>
       <c r="F23">
-        <v>0.9594508124561266</v>
+        <v>0.9594508124561252</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027807549631712</v>
+        <v>1.027807549631711</v>
       </c>
       <c r="J23">
-        <v>0.9888534210107849</v>
+        <v>0.9888534210107827</v>
       </c>
       <c r="K23">
-        <v>1.000698313859094</v>
+        <v>1.000698313859092</v>
       </c>
       <c r="L23">
-        <v>0.9854969979323684</v>
+        <v>0.9854969979323664</v>
       </c>
       <c r="M23">
-        <v>0.9755381447662989</v>
+        <v>0.9755381447662973</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9699208732794853</v>
+        <v>0.9699208732794836</v>
       </c>
       <c r="D24">
-        <v>0.9949027569366838</v>
+        <v>0.9949027569366824</v>
       </c>
       <c r="E24">
-        <v>0.9808704761777939</v>
+        <v>0.9808704761777928</v>
       </c>
       <c r="F24">
-        <v>0.9739874874080798</v>
+        <v>0.9739874874080781</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032908414333979</v>
+        <v>1.032908414333978</v>
       </c>
       <c r="J24">
-        <v>0.9986280650479612</v>
+        <v>0.9986280650479596</v>
       </c>
       <c r="K24">
-        <v>1.009019981108899</v>
+        <v>1.009019981108898</v>
       </c>
       <c r="L24">
-        <v>0.9952420675038746</v>
+        <v>0.9952420675038732</v>
       </c>
       <c r="M24">
-        <v>0.9884873484197844</v>
+        <v>0.9884873484197827</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9841129374256237</v>
+        <v>0.9841129374256241</v>
       </c>
       <c r="D25">
         <v>1.005485145960299</v>
       </c>
       <c r="E25">
-        <v>0.9930699616787463</v>
+        <v>0.9930699616787466</v>
       </c>
       <c r="F25">
-        <v>0.9897139657476948</v>
+        <v>0.9897139657476955</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,13 +1316,13 @@
         <v>1.009187054158164</v>
       </c>
       <c r="K25">
-        <v>1.01799890469779</v>
+        <v>1.017998904697791</v>
       </c>
       <c r="L25">
         <v>1.005776818684754</v>
       </c>
       <c r="M25">
-        <v>1.002474085779639</v>
+        <v>1.00247408577964</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9947322684826022</v>
+        <v>0.9947322684826009</v>
       </c>
       <c r="D2">
-        <v>1.013418483589294</v>
+        <v>1.013418483589292</v>
       </c>
       <c r="E2">
-        <v>1.002220983068395</v>
+        <v>1.002220983068393</v>
       </c>
       <c r="F2">
-        <v>1.001485665849912</v>
+        <v>1.001485665849911</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042396156572281</v>
+        <v>1.04239615657228</v>
       </c>
       <c r="J2">
-        <v>1.017071686219256</v>
+        <v>1.017071686219255</v>
       </c>
       <c r="K2">
-        <v>1.024693990085332</v>
+        <v>1.02469399008533</v>
       </c>
       <c r="L2">
-        <v>1.013649462548151</v>
+        <v>1.01364946254815</v>
       </c>
       <c r="M2">
-        <v>1.012924341719303</v>
+        <v>1.012924341719302</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,10 +459,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002090213716383</v>
+        <v>1.002090213716384</v>
       </c>
       <c r="D3">
-        <v>1.018921236307457</v>
+        <v>1.018921236307458</v>
       </c>
       <c r="E3">
         <v>1.008572716059843</v>
@@ -477,13 +477,13 @@
         <v>1.045157806232812</v>
       </c>
       <c r="J3">
-        <v>1.022524059131478</v>
+        <v>1.022524059131479</v>
       </c>
       <c r="K3">
-        <v>1.029317607854513</v>
+        <v>1.029317607854514</v>
       </c>
       <c r="L3">
-        <v>1.019097070002328</v>
+        <v>1.019097070002329</v>
       </c>
       <c r="M3">
         <v>1.020157375254062</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006703250224013</v>
+        <v>1.006703250224015</v>
       </c>
       <c r="D4">
-        <v>1.022373087730014</v>
+        <v>1.022373087730016</v>
       </c>
       <c r="E4">
-        <v>1.012559517406949</v>
+        <v>1.012559517406951</v>
       </c>
       <c r="F4">
-        <v>1.014765393240487</v>
+        <v>1.014765393240489</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046874342917487</v>
+        <v>1.046874342917488</v>
       </c>
       <c r="J4">
-        <v>1.025937026685365</v>
+        <v>1.025937026685367</v>
       </c>
       <c r="K4">
-        <v>1.032208784729646</v>
+        <v>1.032208784729648</v>
       </c>
       <c r="L4">
-        <v>1.022508687025793</v>
+        <v>1.022508687025795</v>
       </c>
       <c r="M4">
-        <v>1.024688820286727</v>
+        <v>1.024688820286729</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047579916480416</v>
+        <v>1.047579916480415</v>
       </c>
       <c r="J5">
         <v>1.027345767014104</v>
@@ -562,7 +562,7 @@
         <v>1.02391726260766</v>
       </c>
       <c r="M5">
-        <v>1.026560267096784</v>
+        <v>1.026560267096783</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008927259008009</v>
+        <v>1.00892725900801</v>
       </c>
       <c r="D6">
-        <v>1.02403770105778</v>
+        <v>1.024037701057781</v>
       </c>
       <c r="E6">
-        <v>1.014482870977774</v>
+        <v>1.014482870977775</v>
       </c>
       <c r="F6">
-        <v>1.017234150172572</v>
+        <v>1.017234150172573</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.047697465792117</v>
       </c>
       <c r="J6">
-        <v>1.027580812536966</v>
+        <v>1.027580812536967</v>
       </c>
       <c r="K6">
-        <v>1.033600340238595</v>
+        <v>1.033600340238596</v>
       </c>
       <c r="L6">
-        <v>1.024152303778164</v>
+        <v>1.024152303778165</v>
       </c>
       <c r="M6">
-        <v>1.026872578865538</v>
+        <v>1.026872578865539</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,7 +629,7 @@
         <v>1.046883832913056</v>
       </c>
       <c r="J7">
-        <v>1.025955950922796</v>
+        <v>1.025955950922795</v>
       </c>
       <c r="K7">
         <v>1.032224808663317</v>
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9972508517357896</v>
+        <v>0.9972508517357889</v>
       </c>
       <c r="D8">
-        <v>1.015301569245075</v>
+        <v>1.015301569245074</v>
       </c>
       <c r="E8">
-        <v>1.004394124811913</v>
+        <v>1.004394124811912</v>
       </c>
       <c r="F8">
         <v>1.004278561614284</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043344559980551</v>
+        <v>1.04334455998055</v>
       </c>
       <c r="J8">
-        <v>1.018939102607519</v>
+        <v>1.018939102607518</v>
       </c>
       <c r="K8">
-        <v>1.026278184618731</v>
+        <v>1.02627818461873</v>
       </c>
       <c r="L8">
-        <v>1.015514902059108</v>
+        <v>1.015514902059107</v>
       </c>
       <c r="M8">
         <v>1.015400887300912</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9793140302791384</v>
+        <v>0.9793140302791394</v>
       </c>
       <c r="D9">
-        <v>1.001904002481753</v>
+        <v>1.001904002481754</v>
       </c>
       <c r="E9">
-        <v>0.9889409095172479</v>
+        <v>0.9889409095172488</v>
       </c>
       <c r="F9">
-        <v>0.9843958368004317</v>
+        <v>0.9843958368004326</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036528191010183</v>
       </c>
       <c r="J9">
-        <v>1.005619022627405</v>
+        <v>1.005619022627406</v>
       </c>
       <c r="K9">
-        <v>1.014966263922066</v>
+        <v>1.014966263922067</v>
       </c>
       <c r="L9">
-        <v>1.002215997797946</v>
+        <v>1.002215997797947</v>
       </c>
       <c r="M9">
-        <v>0.9977472578811349</v>
+        <v>0.9977472578811357</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9663641576136435</v>
+        <v>0.966364157613643</v>
       </c>
       <c r="D10">
-        <v>0.9922548863204291</v>
+        <v>0.9922548863204289</v>
       </c>
       <c r="E10">
-        <v>0.977818663518488</v>
+        <v>0.9778186635184879</v>
       </c>
       <c r="F10">
-        <v>0.9700463642369624</v>
+        <v>0.9700463642369622</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>1.03153025396105</v>
       </c>
       <c r="J10">
-        <v>0.9959789133197472</v>
+        <v>0.9959789133197468</v>
       </c>
       <c r="K10">
         <v>1.006765403585067</v>
@@ -752,7 +752,7 @@
         <v>0.9926003005535834</v>
       </c>
       <c r="M10">
-        <v>0.9849783538570626</v>
+        <v>0.9849783538570624</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9604784954813813</v>
+        <v>0.9604784954813815</v>
       </c>
       <c r="D11">
-        <v>0.9878773169561907</v>
+        <v>0.9878773169561913</v>
       </c>
       <c r="E11">
-        <v>0.9727734810281616</v>
+        <v>0.9727734810281622</v>
       </c>
       <c r="F11">
-        <v>0.9635240981889807</v>
+        <v>0.9635240981889812</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.029241513787611</v>
       </c>
       <c r="J11">
-        <v>0.9915931286299861</v>
+        <v>0.9915931286299864</v>
       </c>
       <c r="K11">
         <v>1.003031528558848</v>
       </c>
       <c r="L11">
-        <v>0.9882277868030673</v>
+        <v>0.988227786803068</v>
       </c>
       <c r="M11">
-        <v>0.979168315709164</v>
+        <v>0.9791683157091646</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9582461941207563</v>
+        <v>0.9582461941207552</v>
       </c>
       <c r="D12">
-        <v>0.9862184146313163</v>
+        <v>0.9862184146313153</v>
       </c>
       <c r="E12">
-        <v>0.9708615896189302</v>
+        <v>0.9708615896189291</v>
       </c>
       <c r="F12">
-        <v>0.9610500944728438</v>
+        <v>0.9610500944728423</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028370959733764</v>
+        <v>1.028370959733763</v>
       </c>
       <c r="J12">
-        <v>0.9899291495312147</v>
+        <v>0.9899291495312134</v>
       </c>
       <c r="K12">
-        <v>1.001614498257978</v>
+        <v>1.001614498257977</v>
       </c>
       <c r="L12">
-        <v>0.9865691686824901</v>
+        <v>0.9865691686824888</v>
       </c>
       <c r="M12">
-        <v>0.9769635939131073</v>
+        <v>0.9769635939131057</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9587271924726407</v>
+        <v>0.9587271924726396</v>
       </c>
       <c r="D13">
-        <v>0.9865757939584853</v>
+        <v>0.986575793958484</v>
       </c>
       <c r="E13">
-        <v>0.9712734721348445</v>
+        <v>0.9712734721348435</v>
       </c>
       <c r="F13">
-        <v>0.9615831874816105</v>
+        <v>0.9615831874816098</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028558650174871</v>
+        <v>1.02855865017487</v>
       </c>
       <c r="J13">
-        <v>0.9902877131558508</v>
+        <v>0.9902877131558496</v>
       </c>
       <c r="K13">
-        <v>1.001919864673755</v>
+        <v>1.001919864673754</v>
       </c>
       <c r="L13">
-        <v>0.9869265623745637</v>
+        <v>0.9869265623745627</v>
       </c>
       <c r="M13">
-        <v>0.9774387013240968</v>
+        <v>0.9774387013240959</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9602949403351658</v>
+        <v>0.9602949403351663</v>
       </c>
       <c r="D14">
-        <v>0.9877408806087196</v>
+        <v>0.9877408806087201</v>
       </c>
       <c r="E14">
-        <v>0.9726162380933561</v>
+        <v>0.9726162380933562</v>
       </c>
       <c r="F14">
-        <v>0.963320674864244</v>
+        <v>0.9633206748642443</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.029169980620461</v>
       </c>
       <c r="J14">
-        <v>0.9914563152565063</v>
+        <v>0.9914563152565067</v>
       </c>
       <c r="K14">
-        <v>1.002915027043831</v>
+        <v>1.002915027043832</v>
       </c>
       <c r="L14">
-        <v>0.9880914076033608</v>
+        <v>0.9880914076033609</v>
       </c>
       <c r="M14">
-        <v>0.9789870513763957</v>
+        <v>0.9789870513763962</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -918,13 +918,13 @@
         <v>0.9612546331906495</v>
       </c>
       <c r="D15">
-        <v>0.9884542780656527</v>
+        <v>0.9884542780656523</v>
       </c>
       <c r="E15">
-        <v>0.973438428526554</v>
+        <v>0.9734384285265537</v>
       </c>
       <c r="F15">
-        <v>0.96438423436786</v>
+        <v>0.9643842343678597</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.0295438816354</v>
       </c>
       <c r="J15">
-        <v>0.9921716036233353</v>
+        <v>0.9921716036233351</v>
       </c>
       <c r="K15">
         <v>1.003524105393155</v>
       </c>
       <c r="L15">
-        <v>0.9888044392593216</v>
+        <v>0.9888044392593208</v>
       </c>
       <c r="M15">
-        <v>0.9799347215571943</v>
+        <v>0.9799347215571941</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9667485536830996</v>
+        <v>0.9667485536830982</v>
       </c>
       <c r="D16">
-        <v>0.9925409696145133</v>
+        <v>0.9925409696145122</v>
       </c>
       <c r="E16">
-        <v>0.9781483832388198</v>
+        <v>0.9781483832388187</v>
       </c>
       <c r="F16">
-        <v>0.9704723127928562</v>
+        <v>0.9704723127928552</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03167938567462</v>
+        <v>1.031679385674619</v>
       </c>
       <c r="J16">
-        <v>0.9962652698329131</v>
+        <v>0.9962652698329116</v>
       </c>
       <c r="K16">
-        <v>1.007009139846038</v>
+        <v>1.007009139846037</v>
       </c>
       <c r="L16">
-        <v>0.9928858353375697</v>
+        <v>0.9928858353375685</v>
       </c>
       <c r="M16">
-        <v>0.9853576654082176</v>
+        <v>0.9853576654082167</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9701173949564001</v>
+        <v>0.9701173949563984</v>
       </c>
       <c r="D17">
-        <v>0.9950491142002056</v>
+        <v>0.9950491142002043</v>
       </c>
       <c r="E17">
-        <v>0.981039165482577</v>
+        <v>0.9810391654825755</v>
       </c>
       <c r="F17">
-        <v>0.9742052457891885</v>
+        <v>0.9742052457891872</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032984448412282</v>
+        <v>1.032984448412281</v>
       </c>
       <c r="J17">
-        <v>0.9987744112339386</v>
+        <v>0.9987744112339372</v>
       </c>
       <c r="K17">
-        <v>1.009144510832336</v>
+        <v>1.009144510832335</v>
       </c>
       <c r="L17">
-        <v>0.9953880201236137</v>
+        <v>0.9953880201236124</v>
       </c>
       <c r="M17">
-        <v>0.9886811892944547</v>
+        <v>0.9886811892944534</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9720558534229665</v>
+        <v>0.9720558534229663</v>
       </c>
       <c r="D18">
-        <v>0.9964930466524937</v>
+        <v>0.9964930466524935</v>
       </c>
       <c r="E18">
-        <v>0.9827034550973275</v>
+        <v>0.9827034550973274</v>
       </c>
       <c r="F18">
-        <v>0.9763531723997207</v>
+        <v>0.9763531723997204</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1053,10 +1053,10 @@
         <v>1.010372590505463</v>
       </c>
       <c r="L18">
-        <v>0.9968275814844345</v>
+        <v>0.9968275814844343</v>
       </c>
       <c r="M18">
-        <v>0.990592958714082</v>
+        <v>0.9905929587140818</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9727124384689727</v>
+        <v>0.9727124384689737</v>
       </c>
       <c r="D19">
-        <v>0.9969822452218551</v>
+        <v>0.9969822452218552</v>
       </c>
       <c r="E19">
-        <v>0.9832673250699796</v>
+        <v>0.9832673250699802</v>
       </c>
       <c r="F19">
-        <v>0.9770807066456172</v>
+        <v>0.9770807066456182</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1088,13 +1088,13 @@
         <v>1.000706585224133</v>
       </c>
       <c r="K19">
-        <v>1.010788448810119</v>
+        <v>1.01078844881012</v>
       </c>
       <c r="L19">
-        <v>0.9973151428114726</v>
+        <v>0.9973151428114734</v>
       </c>
       <c r="M19">
-        <v>0.9912404026723706</v>
+        <v>0.9912404026723716</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9697587233546386</v>
+        <v>0.9697587233546385</v>
       </c>
       <c r="D20">
-        <v>0.9947820017282281</v>
+        <v>0.9947820017282279</v>
       </c>
       <c r="E20">
-        <v>0.9807312958693255</v>
+        <v>0.9807312958693254</v>
       </c>
       <c r="F20">
-        <v>0.9738078149257779</v>
+        <v>0.9738078149257778</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         <v>1.008917228111817</v>
       </c>
       <c r="L20">
-        <v>0.995121640839475</v>
+        <v>0.9951216408394749</v>
       </c>
       <c r="M20">
-        <v>0.9883274069599083</v>
+        <v>0.9883274069599082</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9598345880013731</v>
+        <v>0.959834588001376</v>
       </c>
       <c r="D21">
-        <v>0.9873987247148248</v>
+        <v>0.9873987247148274</v>
       </c>
       <c r="E21">
-        <v>0.9722219030549032</v>
+        <v>0.972221903054906</v>
       </c>
       <c r="F21">
-        <v>0.9628104888497441</v>
+        <v>0.962810488849746</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028990537392976</v>
+        <v>1.028990537392978</v>
       </c>
       <c r="J21">
-        <v>0.9911131818744048</v>
+        <v>0.9911131818744074</v>
       </c>
       <c r="K21">
-        <v>1.002622830543502</v>
+        <v>1.002622830543505</v>
       </c>
       <c r="L21">
-        <v>0.9877493683870541</v>
+        <v>0.987749368387057</v>
       </c>
       <c r="M21">
-        <v>0.9785324262297341</v>
+        <v>0.978532426229736</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9533255353371325</v>
+        <v>0.9533255353371349</v>
       </c>
       <c r="D22">
-        <v>0.982564579505846</v>
+        <v>0.9825645795058481</v>
       </c>
       <c r="E22">
-        <v>0.9666504204194388</v>
+        <v>0.966650420419441</v>
       </c>
       <c r="F22">
-        <v>0.9555959595900906</v>
+        <v>0.9555959595900936</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02644752722614</v>
+        <v>1.026447527226141</v>
       </c>
       <c r="J22">
-        <v>0.9862603671658138</v>
+        <v>0.986260367165816</v>
       </c>
       <c r="K22">
-        <v>0.9984895330335319</v>
+        <v>0.9984895330335339</v>
       </c>
       <c r="L22">
-        <v>0.9829128092811193</v>
+        <v>0.9829128092811215</v>
       </c>
       <c r="M22">
-        <v>0.9721015556497076</v>
+        <v>0.9721015556497101</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9568032437340859</v>
+        <v>0.956803243734088</v>
       </c>
       <c r="D23">
-        <v>0.9851465356774617</v>
+        <v>0.9851465356774639</v>
       </c>
       <c r="E23">
-        <v>0.9696262331536228</v>
+        <v>0.9696262331536248</v>
       </c>
       <c r="F23">
-        <v>0.9594508124561252</v>
+        <v>0.9594508124561266</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027807549631711</v>
+        <v>1.027807549631712</v>
       </c>
       <c r="J23">
-        <v>0.9888534210107827</v>
+        <v>0.9888534210107849</v>
       </c>
       <c r="K23">
-        <v>1.000698313859092</v>
+        <v>1.000698313859094</v>
       </c>
       <c r="L23">
-        <v>0.9854969979323664</v>
+        <v>0.9854969979323684</v>
       </c>
       <c r="M23">
-        <v>0.9755381447662973</v>
+        <v>0.9755381447662989</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9699208732794836</v>
+        <v>0.9699208732794853</v>
       </c>
       <c r="D24">
-        <v>0.9949027569366824</v>
+        <v>0.9949027569366838</v>
       </c>
       <c r="E24">
-        <v>0.9808704761777928</v>
+        <v>0.9808704761777939</v>
       </c>
       <c r="F24">
-        <v>0.9739874874080781</v>
+        <v>0.9739874874080798</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032908414333978</v>
+        <v>1.032908414333979</v>
       </c>
       <c r="J24">
-        <v>0.9986280650479596</v>
+        <v>0.9986280650479612</v>
       </c>
       <c r="K24">
-        <v>1.009019981108898</v>
+        <v>1.009019981108899</v>
       </c>
       <c r="L24">
-        <v>0.9952420675038732</v>
+        <v>0.9952420675038746</v>
       </c>
       <c r="M24">
-        <v>0.9884873484197827</v>
+        <v>0.9884873484197844</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9841129374256241</v>
+        <v>0.9841129374256237</v>
       </c>
       <c r="D25">
         <v>1.005485145960299</v>
       </c>
       <c r="E25">
-        <v>0.9930699616787466</v>
+        <v>0.9930699616787463</v>
       </c>
       <c r="F25">
-        <v>0.9897139657476955</v>
+        <v>0.9897139657476948</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,13 +1316,13 @@
         <v>1.009187054158164</v>
       </c>
       <c r="K25">
-        <v>1.017998904697791</v>
+        <v>1.01799890469779</v>
       </c>
       <c r="L25">
         <v>1.005776818684754</v>
       </c>
       <c r="M25">
-        <v>1.00247408577964</v>
+        <v>1.002474085779639</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9947322684826009</v>
+        <v>0.9968985660339309</v>
       </c>
       <c r="D2">
-        <v>1.013418483589292</v>
+        <v>1.015094135203831</v>
       </c>
       <c r="E2">
-        <v>1.002220983068393</v>
+        <v>1.004065315035377</v>
       </c>
       <c r="F2">
-        <v>1.001485665849911</v>
+        <v>1.003085996228503</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04239615657228</v>
+        <v>1.043375319997675</v>
       </c>
       <c r="J2">
-        <v>1.017071686219255</v>
+        <v>1.01917243782988</v>
       </c>
       <c r="K2">
-        <v>1.02469399008533</v>
+        <v>1.026347114861344</v>
       </c>
       <c r="L2">
-        <v>1.01364946254815</v>
+        <v>1.015468302626112</v>
       </c>
       <c r="M2">
-        <v>1.012924341719302</v>
+        <v>1.014502504998361</v>
+      </c>
+      <c r="N2">
+        <v>1.020619779592311</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002090213716384</v>
+        <v>1.004241491806655</v>
       </c>
       <c r="D3">
-        <v>1.018921236307458</v>
+        <v>1.020587780268035</v>
       </c>
       <c r="E3">
-        <v>1.008572716059843</v>
+        <v>1.01040577646375</v>
       </c>
       <c r="F3">
-        <v>1.009646452463547</v>
+        <v>1.011229167667035</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045157806232812</v>
+        <v>1.046132449370248</v>
       </c>
       <c r="J3">
-        <v>1.022524059131479</v>
+        <v>1.02461719354015</v>
       </c>
       <c r="K3">
-        <v>1.029317607854514</v>
+        <v>1.030963842855296</v>
       </c>
       <c r="L3">
-        <v>1.019097070002329</v>
+        <v>1.020907222496322</v>
       </c>
       <c r="M3">
-        <v>1.020157375254062</v>
+        <v>1.021720357387701</v>
+      </c>
+      <c r="N3">
+        <v>1.026072267480211</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006703250224015</v>
+        <v>1.008845764173664</v>
       </c>
       <c r="D4">
-        <v>1.022373087730016</v>
+        <v>1.024034362096372</v>
       </c>
       <c r="E4">
-        <v>1.012559517406951</v>
+        <v>1.014386024333834</v>
       </c>
       <c r="F4">
-        <v>1.014765393240489</v>
+        <v>1.016337745520627</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046874342917488</v>
+        <v>1.0478464288178</v>
       </c>
       <c r="J4">
-        <v>1.025937026685367</v>
+        <v>1.028025869466535</v>
       </c>
       <c r="K4">
-        <v>1.032208784729648</v>
+        <v>1.033851115582691</v>
       </c>
       <c r="L4">
-        <v>1.022508687025795</v>
+        <v>1.024313868757867</v>
       </c>
       <c r="M4">
-        <v>1.024688820286729</v>
+        <v>1.026242907525496</v>
+      </c>
+      <c r="N4">
+        <v>1.029485784117392</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008609153462081</v>
+        <v>1.010748190868421</v>
       </c>
       <c r="D5">
-        <v>1.023799592129696</v>
+        <v>1.02545878739836</v>
       </c>
       <c r="E5">
-        <v>1.014207718706945</v>
+        <v>1.016031631924654</v>
       </c>
       <c r="F5">
-        <v>1.016881001342849</v>
+        <v>1.018449222093045</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047579916480415</v>
+        <v>1.04855100786151</v>
       </c>
       <c r="J5">
-        <v>1.027345767014104</v>
+        <v>1.029432944381754</v>
       </c>
       <c r="K5">
-        <v>1.033401399667981</v>
+        <v>1.035042210194134</v>
       </c>
       <c r="L5">
-        <v>1.02391726260766</v>
+        <v>1.025720496525981</v>
       </c>
       <c r="M5">
-        <v>1.026560267096783</v>
+        <v>1.028110816975811</v>
+      </c>
+      <c r="N5">
+        <v>1.030894857240385</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00892725900801</v>
+        <v>1.011065724328716</v>
       </c>
       <c r="D6">
-        <v>1.024037701057781</v>
+        <v>1.025696554876873</v>
       </c>
       <c r="E6">
-        <v>1.014482870977775</v>
+        <v>1.016306357741708</v>
       </c>
       <c r="F6">
-        <v>1.017234150172573</v>
+        <v>1.018801689809181</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047697465792117</v>
+        <v>1.048668394712513</v>
       </c>
       <c r="J6">
-        <v>1.027580812536967</v>
+        <v>1.029667718045775</v>
       </c>
       <c r="K6">
-        <v>1.033600340238596</v>
+        <v>1.035240902278395</v>
       </c>
       <c r="L6">
-        <v>1.024152303778165</v>
+        <v>1.025955218600247</v>
       </c>
       <c r="M6">
-        <v>1.026872578865539</v>
+        <v>1.028422546116338</v>
+      </c>
+      <c r="N6">
+        <v>1.031129964309938</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006728845756746</v>
+        <v>1.008871312460996</v>
       </c>
       <c r="D7">
-        <v>1.022392243871457</v>
+        <v>1.024053489937503</v>
       </c>
       <c r="E7">
-        <v>1.012581648116811</v>
+        <v>1.014408119771691</v>
       </c>
       <c r="F7">
-        <v>1.014793802214885</v>
+        <v>1.016366098432973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046883832913056</v>
+        <v>1.04785590521724</v>
       </c>
       <c r="J7">
-        <v>1.025955950922795</v>
+        <v>1.028044770922143</v>
       </c>
       <c r="K7">
-        <v>1.032224808663317</v>
+        <v>1.033867118740596</v>
       </c>
       <c r="L7">
-        <v>1.022527607493158</v>
+        <v>1.024332762657907</v>
       </c>
       <c r="M7">
-        <v>1.024713955988366</v>
+        <v>1.026267995191547</v>
+      </c>
+      <c r="N7">
+        <v>1.029504712415236</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9972508517357889</v>
+        <v>0.9994118624877413</v>
       </c>
       <c r="D8">
-        <v>1.015301569245074</v>
+        <v>1.016974005329375</v>
       </c>
       <c r="E8">
-        <v>1.004394124811912</v>
+        <v>1.006234484114643</v>
       </c>
       <c r="F8">
-        <v>1.004278561614284</v>
+        <v>1.005872709786071</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04334455998055</v>
+        <v>1.044322114793437</v>
       </c>
       <c r="J8">
-        <v>1.018939102607518</v>
+        <v>1.021037139129844</v>
       </c>
       <c r="K8">
-        <v>1.02627818461873</v>
+        <v>1.027928858738944</v>
       </c>
       <c r="L8">
-        <v>1.015514902059107</v>
+        <v>1.017330662446827</v>
       </c>
       <c r="M8">
-        <v>1.015400887300912</v>
+        <v>1.016973714799757</v>
+      </c>
+      <c r="N8">
+        <v>1.022487128982005</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9793140302791394</v>
+        <v>0.9815161208285094</v>
       </c>
       <c r="D9">
-        <v>1.001904002481754</v>
+        <v>1.003601626400491</v>
       </c>
       <c r="E9">
-        <v>0.9889409095172488</v>
+        <v>0.990812244888037</v>
       </c>
       <c r="F9">
-        <v>0.9843958368004326</v>
+        <v>0.9860376337280156</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036528191010183</v>
+        <v>1.037518620586718</v>
       </c>
       <c r="J9">
-        <v>1.005619022627406</v>
+        <v>1.007738912279469</v>
       </c>
       <c r="K9">
-        <v>1.014966263922067</v>
+        <v>1.016636538751381</v>
       </c>
       <c r="L9">
-        <v>1.002215997797947</v>
+        <v>1.004056166880529</v>
       </c>
       <c r="M9">
-        <v>0.9977472578811357</v>
+        <v>0.9993613767473747</v>
+      </c>
+      <c r="N9">
+        <v>1.009170017124175</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.966364157613643</v>
+        <v>0.9686011442252601</v>
       </c>
       <c r="D10">
-        <v>0.9922548863204289</v>
+        <v>0.993974158415072</v>
       </c>
       <c r="E10">
-        <v>0.9778186635184879</v>
+        <v>0.9797164464504809</v>
       </c>
       <c r="F10">
-        <v>0.9700463642369622</v>
+        <v>0.9717281487867583</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03153025396105</v>
+        <v>1.032532105901377</v>
       </c>
       <c r="J10">
-        <v>0.9959789133197468</v>
+        <v>0.998118394874235</v>
       </c>
       <c r="K10">
-        <v>1.006765403585067</v>
+        <v>1.008453070350398</v>
       </c>
       <c r="L10">
-        <v>0.9926003005535834</v>
+        <v>0.9944618454626668</v>
       </c>
       <c r="M10">
-        <v>0.9849783538570624</v>
+        <v>0.9866273374488888</v>
+      </c>
+      <c r="N10">
+        <v>0.9995358374807366</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9604784954813815</v>
+        <v>0.9627329153409947</v>
       </c>
       <c r="D11">
-        <v>0.9878773169561913</v>
+        <v>0.9896074578403142</v>
       </c>
       <c r="E11">
-        <v>0.9727734810281622</v>
+        <v>0.9746845054234494</v>
       </c>
       <c r="F11">
-        <v>0.9635240981889812</v>
+        <v>0.9652257556406291</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029241513787611</v>
+        <v>1.030249183139447</v>
       </c>
       <c r="J11">
-        <v>0.9915931286299864</v>
+        <v>0.9937426503116654</v>
       </c>
       <c r="K11">
-        <v>1.003031528558848</v>
+        <v>1.004728060084261</v>
       </c>
       <c r="L11">
-        <v>0.988227786803068</v>
+        <v>0.9901001648405148</v>
       </c>
       <c r="M11">
-        <v>0.9791683157091646</v>
+        <v>0.9808346733109875</v>
+      </c>
+      <c r="N11">
+        <v>0.9951538788589833</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9582461941207552</v>
+        <v>0.9605074969139973</v>
       </c>
       <c r="D12">
-        <v>0.9862184146313153</v>
+        <v>0.9879528542544477</v>
       </c>
       <c r="E12">
-        <v>0.9708615896189291</v>
+        <v>0.9727778460284492</v>
       </c>
       <c r="F12">
-        <v>0.9610500944728423</v>
+        <v>0.9627595838055389</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028370959733763</v>
+        <v>1.029380942247692</v>
       </c>
       <c r="J12">
-        <v>0.9899291495312134</v>
+        <v>0.9920826739382647</v>
       </c>
       <c r="K12">
-        <v>1.001614498257977</v>
+        <v>1.003314556241331</v>
       </c>
       <c r="L12">
-        <v>0.9865691686824888</v>
+        <v>0.9884458472052856</v>
       </c>
       <c r="M12">
-        <v>0.9769635939131057</v>
+        <v>0.9786368053078806</v>
+      </c>
+      <c r="N12">
+        <v>0.9934915451287302</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9587271924726396</v>
+        <v>0.9609869993407913</v>
       </c>
       <c r="D13">
-        <v>0.986575793958484</v>
+        <v>0.9883092989704606</v>
       </c>
       <c r="E13">
-        <v>0.9712734721348435</v>
+        <v>0.9731885912493603</v>
       </c>
       <c r="F13">
-        <v>0.9615831874816098</v>
+        <v>0.9632909752618558</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02855865017487</v>
+        <v>1.029568129221466</v>
       </c>
       <c r="J13">
-        <v>0.9902877131558496</v>
+        <v>0.9924403658667664</v>
       </c>
       <c r="K13">
-        <v>1.001919864673754</v>
+        <v>1.003619155032521</v>
       </c>
       <c r="L13">
-        <v>0.9869265623745627</v>
+        <v>0.9888023051839913</v>
       </c>
       <c r="M13">
-        <v>0.9774387013240959</v>
+        <v>0.9791104233701323</v>
+      </c>
+      <c r="N13">
+        <v>0.9938497450207984</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9602949403351663</v>
+        <v>0.962549920446004</v>
       </c>
       <c r="D14">
-        <v>0.9877408806087201</v>
+        <v>0.9894713712497797</v>
       </c>
       <c r="E14">
-        <v>0.9726162380933562</v>
+        <v>0.9745276882799668</v>
       </c>
       <c r="F14">
-        <v>0.9633206748642443</v>
+        <v>0.9650229700854527</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029169980620461</v>
+        <v>1.03017783793174</v>
       </c>
       <c r="J14">
-        <v>0.9914563152565067</v>
+        <v>0.9936061619692077</v>
       </c>
       <c r="K14">
-        <v>1.002915027043832</v>
+        <v>1.004611845082225</v>
       </c>
       <c r="L14">
-        <v>0.9880914076033609</v>
+        <v>0.9899641352187781</v>
       </c>
       <c r="M14">
-        <v>0.9789870513763962</v>
+        <v>0.9806539669672604</v>
+      </c>
+      <c r="N14">
+        <v>0.9950171966874237</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9612546331906495</v>
+        <v>0.963506695326548</v>
       </c>
       <c r="D15">
-        <v>0.9884542780656523</v>
+        <v>0.9901829473550606</v>
       </c>
       <c r="E15">
-        <v>0.9734384285265537</v>
+        <v>0.9753476612109885</v>
       </c>
       <c r="F15">
-        <v>0.9643842343678597</v>
+        <v>0.9660832073114834</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0295438816354</v>
+        <v>1.030550760642735</v>
       </c>
       <c r="J15">
-        <v>0.9921716036233351</v>
+        <v>0.9943197590179319</v>
       </c>
       <c r="K15">
-        <v>1.003524105393155</v>
+        <v>1.005219432235798</v>
       </c>
       <c r="L15">
-        <v>0.9888044392593208</v>
+        <v>0.9906753470920142</v>
       </c>
       <c r="M15">
-        <v>0.9799347215571941</v>
+        <v>0.9815987307307352</v>
+      </c>
+      <c r="N15">
+        <v>0.9957318071258079</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9667485536830982</v>
+        <v>0.9689844369670548</v>
       </c>
       <c r="D16">
-        <v>0.9925409696145122</v>
+        <v>0.9942595548659787</v>
       </c>
       <c r="E16">
-        <v>0.9781483832388187</v>
+        <v>0.9800453286881788</v>
       </c>
       <c r="F16">
-        <v>0.9704723127928552</v>
+        <v>0.9721528376485334</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031679385674619</v>
+        <v>1.032680871618673</v>
       </c>
       <c r="J16">
-        <v>0.9962652698329116</v>
+        <v>0.9984041210408382</v>
       </c>
       <c r="K16">
-        <v>1.007009139846037</v>
+        <v>1.008696249076013</v>
       </c>
       <c r="L16">
-        <v>0.9928858353375685</v>
+        <v>0.9947466977144327</v>
       </c>
       <c r="M16">
-        <v>0.9853576654082167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9870055486146502</v>
+      </c>
+      <c r="N16">
+        <v>0.9998219694112697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9701173949563984</v>
+        <v>0.9723437892136352</v>
       </c>
       <c r="D17">
-        <v>0.9950491142002043</v>
+        <v>0.996761798052091</v>
       </c>
       <c r="E17">
-        <v>0.9810391654825755</v>
+        <v>0.9829289113322873</v>
       </c>
       <c r="F17">
-        <v>0.9742052457891872</v>
+        <v>0.9758749258038774</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032984448412281</v>
+        <v>1.033982798498125</v>
       </c>
       <c r="J17">
-        <v>0.9987744112339372</v>
+        <v>1.000907868333832</v>
       </c>
       <c r="K17">
-        <v>1.009144510832335</v>
+        <v>1.010826843906565</v>
       </c>
       <c r="L17">
-        <v>0.9953880201236124</v>
+        <v>0.9972430290019578</v>
       </c>
       <c r="M17">
-        <v>0.9886811892944534</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9903196041812803</v>
+      </c>
+      <c r="N17">
+        <v>1.002329272312603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9720558534229663</v>
+        <v>0.9742769325002493</v>
       </c>
       <c r="D18">
-        <v>0.9964930466524935</v>
+        <v>0.9982024296972706</v>
       </c>
       <c r="E18">
-        <v>0.9827034550973274</v>
+        <v>0.9845891707395296</v>
       </c>
       <c r="F18">
-        <v>0.9763531723997204</v>
+        <v>0.9780167684932344</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033733773550506</v>
+        <v>1.034730376966965</v>
       </c>
       <c r="J18">
-        <v>1.000217771654214</v>
+        <v>1.002348229596779</v>
       </c>
       <c r="K18">
-        <v>1.010372590505463</v>
+        <v>1.012052263853367</v>
       </c>
       <c r="L18">
-        <v>0.9968275814844343</v>
+        <v>0.9986793252262505</v>
       </c>
       <c r="M18">
-        <v>0.9905929587140818</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9922260661052095</v>
+      </c>
+      <c r="N18">
+        <v>1.003771679053755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9727124384689737</v>
+        <v>0.9749317408732137</v>
       </c>
       <c r="D19">
-        <v>0.9969822452218552</v>
+        <v>0.9986905257547052</v>
       </c>
       <c r="E19">
-        <v>0.9832673250699802</v>
+        <v>0.9851516940031249</v>
       </c>
       <c r="F19">
-        <v>0.9770807066456182</v>
+        <v>0.9787422674933403</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033987303964234</v>
+        <v>1.034983325212839</v>
       </c>
       <c r="J19">
-        <v>1.000706585224133</v>
+        <v>1.002836044419179</v>
       </c>
       <c r="K19">
-        <v>1.01078844881012</v>
+        <v>1.012467235751746</v>
       </c>
       <c r="L19">
-        <v>0.9973151428114734</v>
+        <v>0.9991657974450719</v>
       </c>
       <c r="M19">
-        <v>0.9912404026723716</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9928717352760299</v>
+      </c>
+      <c r="N19">
+        <v>1.004260186629156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9697587233546385</v>
+        <v>0.9719861125954982</v>
       </c>
       <c r="D20">
-        <v>0.9947820017282279</v>
+        <v>0.9964953038778482</v>
       </c>
       <c r="E20">
-        <v>0.9807312958693254</v>
+        <v>0.9826217963733934</v>
       </c>
       <c r="F20">
-        <v>0.9738078149257778</v>
+        <v>0.9754786330580182</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032845669465003</v>
+        <v>1.033844347332824</v>
       </c>
       <c r="J20">
-        <v>0.9985073124961674</v>
+        <v>1.000641332854724</v>
       </c>
       <c r="K20">
-        <v>1.008917228111817</v>
+        <v>1.010600060358148</v>
       </c>
       <c r="L20">
-        <v>0.9951216408394749</v>
+        <v>0.9969772620595141</v>
       </c>
       <c r="M20">
-        <v>0.9883274069599082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9899668150656317</v>
+      </c>
+      <c r="N20">
+        <v>1.002062358322543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.959834588001376</v>
+        <v>0.962090977692685</v>
       </c>
       <c r="D21">
-        <v>0.9873987247148274</v>
+        <v>0.9891300954556019</v>
       </c>
       <c r="E21">
-        <v>0.972221903054906</v>
+        <v>0.9741344245874299</v>
       </c>
       <c r="F21">
-        <v>0.962810488849746</v>
+        <v>0.9645143884639941</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028990537392978</v>
+        <v>1.029998867865483</v>
       </c>
       <c r="J21">
-        <v>0.9911131818744074</v>
+        <v>0.9932638469774018</v>
       </c>
       <c r="K21">
-        <v>1.002622830543505</v>
+        <v>1.004320369864628</v>
       </c>
       <c r="L21">
-        <v>0.987749368387057</v>
+        <v>0.9896229759064022</v>
       </c>
       <c r="M21">
-        <v>0.978532426229736</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9802007456210046</v>
+      </c>
+      <c r="N21">
+        <v>0.9946743955690652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9533255353371349</v>
+        <v>0.9556025548610261</v>
       </c>
       <c r="D22">
-        <v>0.9825645795058481</v>
+        <v>0.9843088486308572</v>
       </c>
       <c r="E22">
-        <v>0.966650420419441</v>
+        <v>0.9685786311253627</v>
       </c>
       <c r="F22">
-        <v>0.9555959595900936</v>
+        <v>0.9573233074827897</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026447527226141</v>
+        <v>1.027462822124196</v>
       </c>
       <c r="J22">
-        <v>0.986260367165816</v>
+        <v>0.9884231053849625</v>
       </c>
       <c r="K22">
-        <v>0.9984895330335339</v>
+        <v>1.000197693426266</v>
       </c>
       <c r="L22">
-        <v>0.9829128092811215</v>
+        <v>0.9847993519887561</v>
       </c>
       <c r="M22">
-        <v>0.9721015556497101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9737904075245127</v>
+      </c>
+      <c r="N22">
+        <v>0.9898267795683241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.956803243734088</v>
+        <v>0.9590690769188825</v>
       </c>
       <c r="D23">
-        <v>0.9851465356774639</v>
+        <v>0.9868838068284983</v>
       </c>
       <c r="E23">
-        <v>0.9696262331536248</v>
+        <v>0.9715459344234459</v>
       </c>
       <c r="F23">
-        <v>0.9594508124561266</v>
+        <v>0.961165452946203</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027807549631712</v>
+        <v>1.028819059269722</v>
       </c>
       <c r="J23">
-        <v>0.9888534210107849</v>
+        <v>0.9910095910954889</v>
       </c>
       <c r="K23">
-        <v>1.000698313859094</v>
+        <v>1.002400700485286</v>
       </c>
       <c r="L23">
-        <v>0.9854969979323684</v>
+        <v>0.9873765137085015</v>
       </c>
       <c r="M23">
-        <v>0.9755381447662989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9772158658656913</v>
+      </c>
+      <c r="N23">
+        <v>0.9924169383852336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9699208732794853</v>
+        <v>0.9721478122556991</v>
       </c>
       <c r="D24">
-        <v>0.9949027569366838</v>
+        <v>0.9966157792699794</v>
       </c>
       <c r="E24">
-        <v>0.9808704761777939</v>
+        <v>0.9827606351664475</v>
       </c>
       <c r="F24">
-        <v>0.9739874874080798</v>
+        <v>0.9756577905319069</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032908414333979</v>
+        <v>1.033906943838089</v>
       </c>
       <c r="J24">
-        <v>0.9986280650479612</v>
+        <v>1.000761830442377</v>
       </c>
       <c r="K24">
-        <v>1.009019981108899</v>
+        <v>1.01070258741352</v>
       </c>
       <c r="L24">
-        <v>0.9952420675038746</v>
+        <v>0.9970974115751674</v>
       </c>
       <c r="M24">
-        <v>0.9884873484197844</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9901263070718155</v>
+      </c>
+      <c r="N24">
+        <v>1.002183027030591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9841129374256237</v>
+        <v>0.9863032409868171</v>
       </c>
       <c r="D25">
-        <v>1.005485145960299</v>
+        <v>1.007175501564934</v>
       </c>
       <c r="E25">
-        <v>0.9930699616787463</v>
+        <v>0.9949323872014534</v>
       </c>
       <c r="F25">
-        <v>0.9897139657476948</v>
+        <v>0.9913421704562976</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038365193682204</v>
+        <v>1.039351851620018</v>
       </c>
       <c r="J25">
-        <v>1.009187054158164</v>
+        <v>1.011300514364592</v>
       </c>
       <c r="K25">
-        <v>1.01799890469779</v>
+        <v>1.019663439046734</v>
       </c>
       <c r="L25">
-        <v>1.005776818684754</v>
+        <v>1.007609884035674</v>
       </c>
       <c r="M25">
-        <v>1.002474085779639</v>
+        <v>1.004076391551185</v>
+      </c>
+      <c r="N25">
+        <v>1.01273667709278</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9968985660339309</v>
+        <v>1.012837697542609</v>
       </c>
       <c r="D2">
-        <v>1.015094135203831</v>
+        <v>1.034799761676326</v>
       </c>
       <c r="E2">
-        <v>1.004065315035377</v>
+        <v>1.016895500476249</v>
       </c>
       <c r="F2">
-        <v>1.003085996228503</v>
+        <v>1.040961598898313</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043375319997675</v>
+        <v>1.055235879044891</v>
       </c>
       <c r="J2">
-        <v>1.01917243782988</v>
+        <v>1.034641099821847</v>
       </c>
       <c r="K2">
-        <v>1.026347114861344</v>
+        <v>1.045794669385814</v>
       </c>
       <c r="L2">
-        <v>1.015468302626112</v>
+        <v>1.028124367244063</v>
       </c>
       <c r="M2">
-        <v>1.014502504998361</v>
+        <v>1.051878311551223</v>
       </c>
       <c r="N2">
-        <v>1.020619779592311</v>
+        <v>1.036110408858586</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004241491806655</v>
+        <v>1.019515701760836</v>
       </c>
       <c r="D3">
-        <v>1.020587780268035</v>
+        <v>1.040134432350207</v>
       </c>
       <c r="E3">
-        <v>1.01040577646375</v>
+        <v>1.022456083652638</v>
       </c>
       <c r="F3">
-        <v>1.011229167667035</v>
+        <v>1.046867131047954</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046132449370248</v>
+        <v>1.057770748507168</v>
       </c>
       <c r="J3">
-        <v>1.02461719354015</v>
+        <v>1.039488126903307</v>
       </c>
       <c r="K3">
-        <v>1.030963842855296</v>
+        <v>1.050278301823317</v>
       </c>
       <c r="L3">
-        <v>1.020907222496322</v>
+        <v>1.032809476347293</v>
       </c>
       <c r="M3">
-        <v>1.021720357387701</v>
+        <v>1.056933501455675</v>
       </c>
       <c r="N3">
-        <v>1.026072267480211</v>
+        <v>1.040964319274465</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008845764173664</v>
+        <v>1.023719176080037</v>
       </c>
       <c r="D4">
-        <v>1.024034362096372</v>
+        <v>1.04349473448149</v>
       </c>
       <c r="E4">
-        <v>1.014386024333834</v>
+        <v>1.025961373602863</v>
       </c>
       <c r="F4">
-        <v>1.016337745520627</v>
+        <v>1.050590009800982</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0478464288178</v>
+        <v>1.059353356826693</v>
       </c>
       <c r="J4">
-        <v>1.028025869466535</v>
+        <v>1.042535006193209</v>
       </c>
       <c r="K4">
-        <v>1.033851115582691</v>
+        <v>1.053095095569573</v>
       </c>
       <c r="L4">
-        <v>1.024313868757867</v>
+        <v>1.035756248116267</v>
       </c>
       <c r="M4">
-        <v>1.026242907525496</v>
+        <v>1.060113917501281</v>
       </c>
       <c r="N4">
-        <v>1.029485784117392</v>
+        <v>1.04401552548244</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010748190868421</v>
+        <v>1.025459567353089</v>
       </c>
       <c r="D5">
-        <v>1.02545878739836</v>
+        <v>1.044886507513953</v>
       </c>
       <c r="E5">
-        <v>1.016031631924654</v>
+        <v>1.027413857384425</v>
       </c>
       <c r="F5">
-        <v>1.018449222093045</v>
+        <v>1.052132679967423</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04855100786151</v>
+        <v>1.060005444960867</v>
       </c>
       <c r="J5">
-        <v>1.029432944381754</v>
+        <v>1.043795488458958</v>
       </c>
       <c r="K5">
-        <v>1.035042210194134</v>
+        <v>1.054259977816257</v>
       </c>
       <c r="L5">
-        <v>1.025720496525981</v>
+        <v>1.036975710637126</v>
       </c>
       <c r="M5">
-        <v>1.028110816975811</v>
+        <v>1.061430266828067</v>
       </c>
       <c r="N5">
-        <v>1.030894857240385</v>
+        <v>1.045277797777586</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011065724328716</v>
+        <v>1.025750257292065</v>
       </c>
       <c r="D6">
-        <v>1.025696554876873</v>
+        <v>1.045118995380475</v>
       </c>
       <c r="E6">
-        <v>1.016306357741708</v>
+        <v>1.027656525858148</v>
       </c>
       <c r="F6">
-        <v>1.018801689809181</v>
+        <v>1.052390417180083</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048668394712513</v>
+        <v>1.060114172372376</v>
       </c>
       <c r="J6">
-        <v>1.029667718045775</v>
+        <v>1.044005958754027</v>
       </c>
       <c r="K6">
-        <v>1.035240902278395</v>
+        <v>1.054454460314206</v>
       </c>
       <c r="L6">
-        <v>1.025955218600247</v>
+        <v>1.0371793546031</v>
       </c>
       <c r="M6">
-        <v>1.028422546116338</v>
+        <v>1.061650101676701</v>
       </c>
       <c r="N6">
-        <v>1.031129964309938</v>
+        <v>1.045488566964615</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008871312460996</v>
+        <v>1.023742534586889</v>
       </c>
       <c r="D7">
-        <v>1.024053489937503</v>
+        <v>1.043513412230271</v>
       </c>
       <c r="E7">
-        <v>1.014408119771691</v>
+        <v>1.025980863468071</v>
       </c>
       <c r="F7">
-        <v>1.016366098432973</v>
+        <v>1.050610709729767</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04785590521724</v>
+        <v>1.059362121382204</v>
       </c>
       <c r="J7">
-        <v>1.028044770922143</v>
+        <v>1.042551927817019</v>
       </c>
       <c r="K7">
-        <v>1.033867118740596</v>
+        <v>1.053110735453307</v>
       </c>
       <c r="L7">
-        <v>1.024332762657907</v>
+        <v>1.035772617510385</v>
       </c>
       <c r="M7">
-        <v>1.026267995191547</v>
+        <v>1.060131586683824</v>
       </c>
       <c r="N7">
-        <v>1.029504712415236</v>
+        <v>1.044032471136897</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9994118624877413</v>
+        <v>1.015119804202042</v>
       </c>
       <c r="D8">
-        <v>1.016974005329375</v>
+        <v>1.036622245275509</v>
       </c>
       <c r="E8">
-        <v>1.006234484114643</v>
+        <v>1.018794606369205</v>
       </c>
       <c r="F8">
-        <v>1.005872709786071</v>
+        <v>1.042978480121066</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044322114793437</v>
+        <v>1.056104827955983</v>
       </c>
       <c r="J8">
-        <v>1.021037139129844</v>
+        <v>1.036298322920984</v>
       </c>
       <c r="K8">
-        <v>1.027928858738944</v>
+        <v>1.047327983318334</v>
       </c>
       <c r="L8">
-        <v>1.017330662446827</v>
+        <v>1.029725871505895</v>
       </c>
       <c r="M8">
-        <v>1.016973714799757</v>
+        <v>1.053606127390837</v>
       </c>
       <c r="N8">
-        <v>1.022487128982005</v>
+        <v>1.037769985404611</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9815161208285094</v>
+        <v>0.9989548964887618</v>
       </c>
       <c r="D9">
-        <v>1.003601626400491</v>
+        <v>1.023727248884567</v>
       </c>
       <c r="E9">
-        <v>0.990812244888037</v>
+        <v>1.005368356803795</v>
       </c>
       <c r="F9">
-        <v>0.9860376337280156</v>
+        <v>1.028720595448186</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037518620586718</v>
+        <v>1.049896518527738</v>
       </c>
       <c r="J9">
-        <v>1.007738912279469</v>
+        <v>1.024544614108831</v>
       </c>
       <c r="K9">
-        <v>1.016636538751381</v>
+        <v>1.036446750027459</v>
       </c>
       <c r="L9">
-        <v>1.004056166880529</v>
+        <v>1.018374932500224</v>
       </c>
       <c r="M9">
-        <v>0.9993613767473747</v>
+        <v>1.041364274243289</v>
       </c>
       <c r="N9">
-        <v>1.009170017124175</v>
+        <v>1.025999584977775</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9686011442252601</v>
+        <v>0.9874177994938816</v>
       </c>
       <c r="D10">
-        <v>0.993974158415072</v>
+        <v>1.014547055860608</v>
       </c>
       <c r="E10">
-        <v>0.9797164464504809</v>
+        <v>0.9958231104484255</v>
       </c>
       <c r="F10">
-        <v>0.9717281487867583</v>
+        <v>1.018585911964612</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032532105901377</v>
+        <v>1.045400467940273</v>
       </c>
       <c r="J10">
-        <v>0.998118394874235</v>
+        <v>1.016139671931685</v>
       </c>
       <c r="K10">
-        <v>1.008453070350398</v>
+        <v>1.028658533875608</v>
       </c>
       <c r="L10">
-        <v>0.9944618454626668</v>
+        <v>1.010268191684687</v>
       </c>
       <c r="M10">
-        <v>0.9866273374488888</v>
+        <v>1.032627509258556</v>
       </c>
       <c r="N10">
-        <v>0.9995358374807366</v>
+        <v>1.017582706818677</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9627329153409947</v>
+        <v>0.9822139894551248</v>
       </c>
       <c r="D11">
-        <v>0.9896074578403142</v>
+        <v>1.01041356935883</v>
       </c>
       <c r="E11">
-        <v>0.9746845054234494</v>
+        <v>0.9915281175427055</v>
       </c>
       <c r="F11">
-        <v>0.9652257556406291</v>
+        <v>1.01402630972206</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030249183139447</v>
+        <v>1.04335811488948</v>
       </c>
       <c r="J11">
-        <v>0.9937426503116654</v>
+        <v>1.012345874189251</v>
       </c>
       <c r="K11">
-        <v>1.004728060084261</v>
+        <v>1.025141737237979</v>
       </c>
       <c r="L11">
-        <v>0.9901001648405148</v>
+        <v>1.006611589395092</v>
       </c>
       <c r="M11">
-        <v>0.9808346733109875</v>
+        <v>1.028688470909249</v>
       </c>
       <c r="N11">
-        <v>0.9951538788589833</v>
+        <v>1.013783521448295</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9605074969139973</v>
+        <v>0.980247097337331</v>
       </c>
       <c r="D12">
-        <v>0.9879528542544477</v>
+        <v>1.008852482565797</v>
       </c>
       <c r="E12">
-        <v>0.9727778460284492</v>
+        <v>0.9899064409297375</v>
       </c>
       <c r="F12">
-        <v>0.9627595838055389</v>
+        <v>1.012304833852365</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029380942247692</v>
+        <v>1.042584097677924</v>
       </c>
       <c r="J12">
-        <v>0.9920826739382647</v>
+        <v>1.010911617494633</v>
       </c>
       <c r="K12">
-        <v>1.003314556241331</v>
+        <v>1.023812025726645</v>
       </c>
       <c r="L12">
-        <v>0.9884458472052856</v>
+        <v>1.005229606564549</v>
       </c>
       <c r="M12">
-        <v>0.9786368053078806</v>
+        <v>1.027200029511233</v>
       </c>
       <c r="N12">
-        <v>0.9934915451287302</v>
+        <v>1.012347227944659</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9609869993407913</v>
+        <v>0.9806705860099251</v>
       </c>
       <c r="D13">
-        <v>0.9883092989704606</v>
+        <v>1.009188538476233</v>
       </c>
       <c r="E13">
-        <v>0.9731885912493603</v>
+        <v>0.9902555221167283</v>
       </c>
       <c r="F13">
-        <v>0.9632909752618558</v>
+        <v>1.012675392481766</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029568129221466</v>
+        <v>1.042750841768193</v>
       </c>
       <c r="J13">
-        <v>0.9924403658667664</v>
+        <v>1.011220437395346</v>
       </c>
       <c r="K13">
-        <v>1.003619155032521</v>
+        <v>1.024098342689346</v>
       </c>
       <c r="L13">
-        <v>0.9888023051839913</v>
+        <v>1.005527152360789</v>
       </c>
       <c r="M13">
-        <v>0.9791104233701323</v>
+        <v>1.027520482894347</v>
       </c>
       <c r="N13">
-        <v>0.9938497450207984</v>
+        <v>1.012656486405053</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.962549920446004</v>
+        <v>0.9820521150938595</v>
       </c>
       <c r="D14">
-        <v>0.9894713712497797</v>
+        <v>1.010285066160366</v>
       </c>
       <c r="E14">
-        <v>0.9745276882799668</v>
+        <v>0.9913946187086339</v>
       </c>
       <c r="F14">
-        <v>0.9650229700854527</v>
+        <v>1.013884592915949</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03017783793174</v>
+        <v>1.043294454921544</v>
       </c>
       <c r="J14">
-        <v>0.9936061619692077</v>
+        <v>1.012227841129922</v>
       </c>
       <c r="K14">
-        <v>1.004611845082225</v>
+        <v>1.02503231117352</v>
       </c>
       <c r="L14">
-        <v>0.9899641352187781</v>
+        <v>1.006497849891736</v>
       </c>
       <c r="M14">
-        <v>0.9806539669672604</v>
+        <v>1.028565963739875</v>
       </c>
       <c r="N14">
-        <v>0.9950171966874237</v>
+        <v>1.013665320768483</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.963506695326548</v>
+        <v>0.9828987342373696</v>
       </c>
       <c r="D15">
-        <v>0.9901829473550606</v>
+        <v>1.010957202772322</v>
       </c>
       <c r="E15">
-        <v>0.9753476612109885</v>
+        <v>0.9920929013854584</v>
       </c>
       <c r="F15">
-        <v>0.9660832073114834</v>
+        <v>1.014625865342078</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030550760642735</v>
+        <v>1.043627319540996</v>
       </c>
       <c r="J15">
-        <v>0.9943197590179319</v>
+        <v>1.012845153939276</v>
       </c>
       <c r="K15">
-        <v>1.005219432235798</v>
+        <v>1.025604602441967</v>
       </c>
       <c r="L15">
-        <v>0.9906753470920142</v>
+        <v>1.007092724049609</v>
       </c>
       <c r="M15">
-        <v>0.9815987307307352</v>
+        <v>1.029206705841446</v>
       </c>
       <c r="N15">
-        <v>0.9957318071258079</v>
+        <v>1.014283510232832</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9689844369670548</v>
+        <v>0.9877585506746224</v>
       </c>
       <c r="D16">
-        <v>0.9942595548659787</v>
+        <v>1.014817884707151</v>
       </c>
       <c r="E16">
-        <v>0.9800453286881788</v>
+        <v>0.9961045786954442</v>
       </c>
       <c r="F16">
-        <v>0.9721528376485334</v>
+        <v>1.018884735345275</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032680871618673</v>
+        <v>1.045533912969719</v>
       </c>
       <c r="J16">
-        <v>0.9984041210408382</v>
+        <v>1.01638804552091</v>
       </c>
       <c r="K16">
-        <v>1.008696249076013</v>
+        <v>1.028888746695436</v>
       </c>
       <c r="L16">
-        <v>0.9947466977144327</v>
+        <v>1.010507638448776</v>
       </c>
       <c r="M16">
-        <v>0.9870055486146502</v>
+        <v>1.03288548895886</v>
       </c>
       <c r="N16">
-        <v>0.9998219694112697</v>
+        <v>1.017831433126888</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9723437892136352</v>
+        <v>0.9907494476018285</v>
       </c>
       <c r="D17">
-        <v>0.996761798052091</v>
+        <v>1.017195884790178</v>
       </c>
       <c r="E17">
-        <v>0.9829289113322873</v>
+        <v>0.9985763187655331</v>
       </c>
       <c r="F17">
-        <v>0.9758749258038774</v>
+        <v>1.021508952684552</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033982798498125</v>
+        <v>1.046703590755418</v>
       </c>
       <c r="J17">
-        <v>1.000907868333832</v>
+        <v>1.018567811716502</v>
       </c>
       <c r="K17">
-        <v>1.010826843906565</v>
+        <v>1.030908979147808</v>
       </c>
       <c r="L17">
-        <v>0.9972430290019578</v>
+        <v>1.012609356403063</v>
       </c>
       <c r="M17">
-        <v>0.9903196041812803</v>
+        <v>1.035150077196214</v>
       </c>
       <c r="N17">
-        <v>1.002329272312603</v>
+        <v>1.0200142948405</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9742769325002493</v>
+        <v>0.9924740990146762</v>
       </c>
       <c r="D18">
-        <v>0.9982024296972706</v>
+        <v>1.018567789558945</v>
       </c>
       <c r="E18">
-        <v>0.9845891707395296</v>
+        <v>1.000002575066083</v>
       </c>
       <c r="F18">
-        <v>0.9780167684932344</v>
+        <v>1.023023248895709</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034730376966965</v>
+        <v>1.04737670281475</v>
       </c>
       <c r="J18">
-        <v>1.002348229596779</v>
+        <v>1.019824472143449</v>
       </c>
       <c r="K18">
-        <v>1.012052263853367</v>
+        <v>1.032073535021689</v>
       </c>
       <c r="L18">
-        <v>0.9986793252262505</v>
+        <v>1.01382126406117</v>
       </c>
       <c r="M18">
-        <v>0.9922260661052095</v>
+        <v>1.036456062472304</v>
       </c>
       <c r="N18">
-        <v>1.003771679053755</v>
+        <v>1.021272739869394</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9749317408732137</v>
+        <v>0.9930588639337598</v>
       </c>
       <c r="D19">
-        <v>0.9986905257547052</v>
+        <v>1.019033060299088</v>
       </c>
       <c r="E19">
-        <v>0.9851516940031249</v>
+        <v>1.000486325438581</v>
       </c>
       <c r="F19">
-        <v>0.9787422674933403</v>
+        <v>1.023536869313606</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034983325212839</v>
+        <v>1.047604695942007</v>
       </c>
       <c r="J19">
-        <v>1.002836044419179</v>
+        <v>1.020250510790166</v>
       </c>
       <c r="K19">
-        <v>1.012467235751746</v>
+        <v>1.032468324799405</v>
       </c>
       <c r="L19">
-        <v>0.9991657974450719</v>
+        <v>1.01423217116188</v>
       </c>
       <c r="M19">
-        <v>0.9928717352760299</v>
+        <v>1.036898894183465</v>
       </c>
       <c r="N19">
-        <v>1.004260186629156</v>
+        <v>1.021699383539858</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9719861125954982</v>
+        <v>0.9904306282491809</v>
       </c>
       <c r="D20">
-        <v>0.9964953038778482</v>
+        <v>1.016942327387188</v>
       </c>
       <c r="E20">
-        <v>0.9826217963733934</v>
+        <v>0.9983127381764213</v>
       </c>
       <c r="F20">
-        <v>0.9754786330580182</v>
+        <v>1.021229106267258</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033844347332824</v>
+        <v>1.046579048086229</v>
       </c>
       <c r="J20">
-        <v>1.000641332854724</v>
+        <v>1.018335483032488</v>
       </c>
       <c r="K20">
-        <v>1.010600060358148</v>
+        <v>1.030693667698824</v>
       </c>
       <c r="L20">
-        <v>0.9969772620595141</v>
+        <v>1.012385321073842</v>
       </c>
       <c r="M20">
-        <v>0.9899668150656317</v>
+        <v>1.034908663485394</v>
       </c>
       <c r="N20">
-        <v>1.002062358322543</v>
+        <v>1.019781636223107</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.962090977692685</v>
+        <v>0.9816462500015904</v>
       </c>
       <c r="D21">
-        <v>0.9891300954556019</v>
+        <v>1.009962892824232</v>
       </c>
       <c r="E21">
-        <v>0.9741344245874299</v>
+        <v>0.9910599271460985</v>
       </c>
       <c r="F21">
-        <v>0.9645143884639941</v>
+        <v>1.01352930012191</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029998867865483</v>
+        <v>1.043134808386772</v>
       </c>
       <c r="J21">
-        <v>0.9932638469774018</v>
+        <v>1.011931894056701</v>
       </c>
       <c r="K21">
-        <v>1.004320369864628</v>
+        <v>1.024757941900813</v>
       </c>
       <c r="L21">
-        <v>0.9896229759064022</v>
+        <v>1.006212674755387</v>
       </c>
       <c r="M21">
-        <v>0.9802007456210046</v>
+        <v>1.02825881042153</v>
       </c>
       <c r="N21">
-        <v>0.9946743955690652</v>
+        <v>1.013368953416471</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9556025548610261</v>
+        <v>0.9759250782465612</v>
       </c>
       <c r="D22">
-        <v>0.9843088486308572</v>
+        <v>1.00542468261088</v>
       </c>
       <c r="E22">
-        <v>0.9685786311253627</v>
+        <v>0.9863463190575705</v>
       </c>
       <c r="F22">
-        <v>0.9573233074827897</v>
+        <v>1.008525844221071</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027462822124196</v>
+        <v>1.040879592730937</v>
       </c>
       <c r="J22">
-        <v>0.9884231053849625</v>
+        <v>1.007759557322004</v>
       </c>
       <c r="K22">
-        <v>1.000197693426266</v>
+        <v>1.020889436051841</v>
       </c>
       <c r="L22">
-        <v>0.9847993519887561</v>
+        <v>1.002193198811579</v>
       </c>
       <c r="M22">
-        <v>0.9737904075245127</v>
+        <v>1.023930273665865</v>
       </c>
       <c r="N22">
-        <v>0.9898267795683241</v>
+        <v>1.009190691485038</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9590690769188825</v>
+        <v>0.9789777388734833</v>
       </c>
       <c r="D23">
-        <v>0.9868838068284983</v>
+        <v>1.007845391099683</v>
       </c>
       <c r="E23">
-        <v>0.9715459344234459</v>
+        <v>0.9888603728963342</v>
       </c>
       <c r="F23">
-        <v>0.961165452946203</v>
+        <v>1.011194423479095</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028819059269722</v>
+        <v>1.04208400680698</v>
       </c>
       <c r="J23">
-        <v>0.9910095910954889</v>
+        <v>1.00998592868802</v>
       </c>
       <c r="K23">
-        <v>1.002400700485286</v>
+        <v>1.022953766284114</v>
       </c>
       <c r="L23">
-        <v>0.9873765137085015</v>
+        <v>1.004337772954763</v>
       </c>
       <c r="M23">
-        <v>0.9772158658656913</v>
+        <v>1.026239578932087</v>
       </c>
       <c r="N23">
-        <v>0.9924169383852336</v>
+        <v>1.011420224553762</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9721478122556991</v>
+        <v>0.9905747502522579</v>
       </c>
       <c r="D24">
-        <v>0.9966157792699794</v>
+        <v>1.017056945715392</v>
       </c>
       <c r="E24">
-        <v>0.9827606351664475</v>
+        <v>0.998431886550494</v>
       </c>
       <c r="F24">
-        <v>0.9756577905319069</v>
+        <v>1.021355607234915</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033906943838089</v>
+        <v>1.046635351729204</v>
       </c>
       <c r="J24">
-        <v>1.000761830442377</v>
+        <v>1.018440507839284</v>
       </c>
       <c r="K24">
-        <v>1.01070258741352</v>
+        <v>1.030791000229387</v>
       </c>
       <c r="L24">
-        <v>0.9970974115751674</v>
+        <v>1.012486596094071</v>
       </c>
       <c r="M24">
-        <v>0.9901263070718155</v>
+        <v>1.035017793889522</v>
       </c>
       <c r="N24">
-        <v>1.002183027030591</v>
+        <v>1.019886810177175</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9863032409868171</v>
+        <v>1.003259372886524</v>
       </c>
       <c r="D25">
-        <v>1.007175501564934</v>
+        <v>1.027157577469405</v>
       </c>
       <c r="E25">
-        <v>0.9949323872014534</v>
+        <v>1.008937682218295</v>
       </c>
       <c r="F25">
-        <v>0.9913421704562976</v>
+        <v>1.032510755502932</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039351851620018</v>
+        <v>1.051561124403542</v>
       </c>
       <c r="J25">
-        <v>1.011300514364592</v>
+        <v>1.027677541823352</v>
       </c>
       <c r="K25">
-        <v>1.019663439046734</v>
+        <v>1.039348443109875</v>
       </c>
       <c r="L25">
-        <v>1.007609884035674</v>
+        <v>1.02139881866256</v>
       </c>
       <c r="M25">
-        <v>1.004076391551185</v>
+        <v>1.044624508402775</v>
       </c>
       <c r="N25">
-        <v>1.01273667709278</v>
+        <v>1.029136961809002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012837697542609</v>
+        <v>1.005869521037547</v>
       </c>
       <c r="D2">
-        <v>1.034799761676326</v>
+        <v>1.02213300569875</v>
       </c>
       <c r="E2">
-        <v>1.016895500476249</v>
-      </c>
-      <c r="F2">
-        <v>1.040961598898313</v>
+        <v>1.011572016694884</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055235879044891</v>
+        <v>1.046404545308249</v>
       </c>
       <c r="J2">
-        <v>1.034641099821847</v>
+        <v>1.02787608189614</v>
       </c>
       <c r="K2">
-        <v>1.045794669385814</v>
+        <v>1.033292369285181</v>
       </c>
       <c r="L2">
-        <v>1.028124367244063</v>
-      </c>
-      <c r="M2">
-        <v>1.051878311551223</v>
+        <v>1.022872455110196</v>
       </c>
       <c r="N2">
-        <v>1.036110408858586</v>
+        <v>1.02933578383147</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019515701760836</v>
+        <v>1.009573411257188</v>
       </c>
       <c r="D3">
-        <v>1.040134432350207</v>
+        <v>1.024747061836861</v>
       </c>
       <c r="E3">
-        <v>1.022456083652638</v>
-      </c>
-      <c r="F3">
-        <v>1.046867131047954</v>
+        <v>1.014470633582001</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057770748507168</v>
+        <v>1.047481267973926</v>
       </c>
       <c r="J3">
-        <v>1.039488126903307</v>
+        <v>1.029806454569745</v>
       </c>
       <c r="K3">
-        <v>1.050278301823317</v>
+        <v>1.035072795976713</v>
       </c>
       <c r="L3">
-        <v>1.032809476347293</v>
-      </c>
-      <c r="M3">
-        <v>1.056933501455675</v>
+        <v>1.02492164839413</v>
       </c>
       <c r="N3">
-        <v>1.040964319274465</v>
+        <v>1.031268897855685</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023719176080037</v>
+        <v>1.01192514402807</v>
       </c>
       <c r="D4">
-        <v>1.04349473448149</v>
+        <v>1.026408640008965</v>
       </c>
       <c r="E4">
-        <v>1.025961373602863</v>
-      </c>
-      <c r="F4">
-        <v>1.050590009800982</v>
+        <v>1.016316683375006</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059353356826693</v>
+        <v>1.048154241081489</v>
       </c>
       <c r="J4">
-        <v>1.042535006193209</v>
+        <v>1.031028645457724</v>
       </c>
       <c r="K4">
-        <v>1.053095095569573</v>
+        <v>1.036198450811624</v>
       </c>
       <c r="L4">
-        <v>1.035756248116267</v>
-      </c>
-      <c r="M4">
-        <v>1.060113917501281</v>
+        <v>1.026222089584198</v>
       </c>
       <c r="N4">
-        <v>1.04401552548244</v>
+        <v>1.032492824394913</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025459567353089</v>
+        <v>1.012903362349248</v>
       </c>
       <c r="D5">
-        <v>1.044886507513953</v>
+        <v>1.027100179874328</v>
       </c>
       <c r="E5">
-        <v>1.027413857384425</v>
-      </c>
-      <c r="F5">
-        <v>1.052132679967423</v>
+        <v>1.017085875332057</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060005444960867</v>
+        <v>1.048431567843438</v>
       </c>
       <c r="J5">
-        <v>1.043795488458958</v>
+        <v>1.031536162123187</v>
       </c>
       <c r="K5">
-        <v>1.054259977816257</v>
+        <v>1.036665487015574</v>
       </c>
       <c r="L5">
-        <v>1.036975710637126</v>
-      </c>
-      <c r="M5">
-        <v>1.061430266828067</v>
+        <v>1.026762828732274</v>
       </c>
       <c r="N5">
-        <v>1.045277797777586</v>
+        <v>1.033001061792254</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025750257292065</v>
+        <v>1.013067005384773</v>
       </c>
       <c r="D6">
-        <v>1.045118995380475</v>
+        <v>1.027215887472859</v>
       </c>
       <c r="E6">
-        <v>1.027656525858148</v>
-      </c>
-      <c r="F6">
-        <v>1.052390417180083</v>
+        <v>1.017214627459917</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060114172372376</v>
+        <v>1.048477806955384</v>
       </c>
       <c r="J6">
-        <v>1.044005958754027</v>
+        <v>1.031621011516947</v>
       </c>
       <c r="K6">
-        <v>1.054454460314206</v>
+        <v>1.03674354522863</v>
       </c>
       <c r="L6">
-        <v>1.0371793546031</v>
-      </c>
-      <c r="M6">
-        <v>1.061650101676701</v>
+        <v>1.026853275426322</v>
       </c>
       <c r="N6">
-        <v>1.045488566964615</v>
+        <v>1.033086031681886</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023742534586889</v>
+        <v>1.011938255693426</v>
       </c>
       <c r="D7">
-        <v>1.043513412230271</v>
+        <v>1.026417907635994</v>
       </c>
       <c r="E7">
-        <v>1.025980863468071</v>
-      </c>
-      <c r="F7">
-        <v>1.050610709729767</v>
+        <v>1.016326988175398</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059362121382204</v>
+        <v>1.04815796858514</v>
       </c>
       <c r="J7">
-        <v>1.042551927817019</v>
+        <v>1.031035451456723</v>
       </c>
       <c r="K7">
-        <v>1.053110735453307</v>
+        <v>1.036204715520643</v>
       </c>
       <c r="L7">
-        <v>1.035772617510385</v>
-      </c>
-      <c r="M7">
-        <v>1.060131586683824</v>
+        <v>1.02622933822344</v>
       </c>
       <c r="N7">
-        <v>1.044032471136897</v>
+        <v>1.032499640059211</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015119804202042</v>
+        <v>1.007130760329606</v>
       </c>
       <c r="D8">
-        <v>1.036622245275509</v>
+        <v>1.023022730903165</v>
       </c>
       <c r="E8">
-        <v>1.018794606369205</v>
-      </c>
-      <c r="F8">
-        <v>1.042978480121066</v>
+        <v>1.012557851029952</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056104827955983</v>
+        <v>1.046773400652884</v>
       </c>
       <c r="J8">
-        <v>1.036298322920984</v>
+        <v>1.028534117266642</v>
       </c>
       <c r="K8">
-        <v>1.047327983318334</v>
+        <v>1.03389961997911</v>
       </c>
       <c r="L8">
-        <v>1.029725871505895</v>
-      </c>
-      <c r="M8">
-        <v>1.053606127390837</v>
+        <v>1.023570363186979</v>
       </c>
       <c r="N8">
-        <v>1.037769985404611</v>
+        <v>1.029994753687673</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9989548964887618</v>
+        <v>0.9983007707101519</v>
       </c>
       <c r="D9">
-        <v>1.023727248884567</v>
+        <v>1.016803153322335</v>
       </c>
       <c r="E9">
-        <v>1.005368356803795</v>
-      </c>
-      <c r="F9">
-        <v>1.028720595448186</v>
+        <v>1.005681070243104</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049896518527738</v>
+        <v>1.044147462638985</v>
       </c>
       <c r="J9">
-        <v>1.024544614108831</v>
+        <v>1.023913676167192</v>
       </c>
       <c r="K9">
-        <v>1.036446750027459</v>
+        <v>1.029629369224723</v>
       </c>
       <c r="L9">
-        <v>1.018374932500224</v>
-      </c>
-      <c r="M9">
-        <v>1.041364274243289</v>
+        <v>1.018682643613406</v>
       </c>
       <c r="N9">
-        <v>1.025999584977775</v>
+        <v>1.02536775103189</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9874177994938816</v>
+        <v>0.9921517795313053</v>
       </c>
       <c r="D10">
-        <v>1.014547055860608</v>
+        <v>1.012485916412204</v>
       </c>
       <c r="E10">
-        <v>0.9958231104484255</v>
-      </c>
-      <c r="F10">
-        <v>1.018585911964612</v>
+        <v>1.000925642826404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045400467940273</v>
+        <v>1.042265267175807</v>
       </c>
       <c r="J10">
-        <v>1.016139671931685</v>
+        <v>1.020680277431227</v>
       </c>
       <c r="K10">
-        <v>1.028658533875608</v>
+        <v>1.026633334779109</v>
       </c>
       <c r="L10">
-        <v>1.010268191684687</v>
-      </c>
-      <c r="M10">
-        <v>1.032627509258556</v>
+        <v>1.015278204594242</v>
       </c>
       <c r="N10">
-        <v>1.017582706818677</v>
+        <v>1.022129760498843</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9822139894551248</v>
+        <v>0.9894219139168009</v>
       </c>
       <c r="D11">
-        <v>1.01041356935883</v>
+        <v>1.010573225358838</v>
       </c>
       <c r="E11">
-        <v>0.9915281175427055</v>
-      </c>
-      <c r="F11">
-        <v>1.01402630972206</v>
+        <v>0.9988229067229928</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04335811488948</v>
+        <v>1.041417516850661</v>
       </c>
       <c r="J11">
-        <v>1.012345874189251</v>
+        <v>1.019241472381052</v>
       </c>
       <c r="K11">
-        <v>1.025141737237979</v>
+        <v>1.025298463255615</v>
       </c>
       <c r="L11">
-        <v>1.006611589395092</v>
-      </c>
-      <c r="M11">
-        <v>1.028688470909249</v>
+        <v>1.013767055491331</v>
       </c>
       <c r="N11">
-        <v>1.013783521448295</v>
+        <v>1.020688912180465</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.980247097337331</v>
+        <v>0.9883973477580513</v>
       </c>
       <c r="D12">
-        <v>1.008852482565797</v>
+        <v>1.009856012113062</v>
       </c>
       <c r="E12">
-        <v>0.9899064409297375</v>
-      </c>
-      <c r="F12">
-        <v>1.012304833852365</v>
+        <v>0.9980350303150489</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042584097677924</v>
+        <v>1.04109756527201</v>
       </c>
       <c r="J12">
-        <v>1.010911617494633</v>
+        <v>1.018701001362166</v>
       </c>
       <c r="K12">
-        <v>1.023812025726645</v>
+        <v>1.024796791544998</v>
       </c>
       <c r="L12">
-        <v>1.005229606564549</v>
-      </c>
-      <c r="M12">
-        <v>1.027200029511233</v>
+        <v>1.013199973116705</v>
       </c>
       <c r="N12">
-        <v>1.012347227944659</v>
+        <v>1.020147673630738</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9806705860099251</v>
+        <v>0.9886176067825245</v>
       </c>
       <c r="D13">
-        <v>1.009188538476233</v>
+        <v>1.010010166606495</v>
       </c>
       <c r="E13">
-        <v>0.9902555221167283</v>
-      </c>
-      <c r="F13">
-        <v>1.012675392481766</v>
+        <v>0.9982043459863317</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042750841768193</v>
+        <v>1.041166427247015</v>
       </c>
       <c r="J13">
-        <v>1.011220437395346</v>
+        <v>1.018817210940551</v>
       </c>
       <c r="K13">
-        <v>1.024098342689346</v>
+        <v>1.024904669428782</v>
       </c>
       <c r="L13">
-        <v>1.005527152360789</v>
-      </c>
-      <c r="M13">
-        <v>1.027520482894347</v>
+        <v>1.01332187909314</v>
       </c>
       <c r="N13">
-        <v>1.012656486405053</v>
+        <v>1.020264048240054</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9820521150938595</v>
+        <v>0.9893374413868666</v>
       </c>
       <c r="D14">
-        <v>1.010285066160366</v>
+        <v>1.010514079570856</v>
       </c>
       <c r="E14">
-        <v>0.9913946187086339</v>
-      </c>
-      <c r="F14">
-        <v>1.013884592915949</v>
+        <v>0.9987579215194077</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043294454921544</v>
+        <v>1.04139117359755</v>
       </c>
       <c r="J14">
-        <v>1.012227841129922</v>
+        <v>1.019196921284777</v>
       </c>
       <c r="K14">
-        <v>1.02503231117352</v>
+        <v>1.025257115246532</v>
       </c>
       <c r="L14">
-        <v>1.006497849891736</v>
-      </c>
-      <c r="M14">
-        <v>1.028565963739875</v>
+        <v>1.013720299363934</v>
       </c>
       <c r="N14">
-        <v>1.013665320768483</v>
+        <v>1.020644297816522</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9828987342373696</v>
+        <v>0.989779540082924</v>
       </c>
       <c r="D15">
-        <v>1.010957202772322</v>
+        <v>1.010823654235293</v>
       </c>
       <c r="E15">
-        <v>0.9920929013854584</v>
-      </c>
-      <c r="F15">
-        <v>1.014625865342078</v>
+        <v>0.9990980845935212</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043627319540996</v>
+        <v>1.041528972520146</v>
       </c>
       <c r="J15">
-        <v>1.012845153939276</v>
+        <v>1.019430066990564</v>
       </c>
       <c r="K15">
-        <v>1.025604602441967</v>
+        <v>1.025473488688035</v>
       </c>
       <c r="L15">
-        <v>1.007092724049609</v>
-      </c>
-      <c r="M15">
-        <v>1.029206705841446</v>
+        <v>1.013965007462428</v>
       </c>
       <c r="N15">
-        <v>1.014283510232832</v>
+        <v>1.020877774615953</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9877585506746224</v>
+        <v>0.9923314949042035</v>
       </c>
       <c r="D16">
-        <v>1.014817884707151</v>
+        <v>1.012611922174676</v>
       </c>
       <c r="E16">
-        <v>0.9961045786954442</v>
-      </c>
-      <c r="F16">
-        <v>1.018884735345275</v>
+        <v>1.001064252619625</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045533912969719</v>
+        <v>1.04232082790431</v>
       </c>
       <c r="J16">
-        <v>1.01638804552091</v>
+        <v>1.020774932093248</v>
       </c>
       <c r="K16">
-        <v>1.028888746695436</v>
+        <v>1.026721117735507</v>
       </c>
       <c r="L16">
-        <v>1.010507638448776</v>
-      </c>
-      <c r="M16">
-        <v>1.03288548895886</v>
+        <v>1.015377696876969</v>
       </c>
       <c r="N16">
-        <v>1.017831433126888</v>
+        <v>1.022224549581341</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9907494476018285</v>
+        <v>0.993913931188508</v>
       </c>
       <c r="D17">
-        <v>1.017195884790178</v>
+        <v>1.013721891165397</v>
       </c>
       <c r="E17">
-        <v>0.9985763187655331</v>
-      </c>
-      <c r="F17">
-        <v>1.021508952684552</v>
+        <v>1.00228571382095</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046703590755418</v>
+        <v>1.042808674540101</v>
       </c>
       <c r="J17">
-        <v>1.018567811716502</v>
+        <v>1.021608013928583</v>
       </c>
       <c r="K17">
-        <v>1.030908979147808</v>
+        <v>1.027493528815577</v>
       </c>
       <c r="L17">
-        <v>1.012609356403063</v>
-      </c>
-      <c r="M17">
-        <v>1.035150077196214</v>
+        <v>1.016253784536619</v>
       </c>
       <c r="N17">
-        <v>1.0200142948405</v>
+        <v>1.023058814488438</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9924740990146762</v>
+        <v>0.9948304772994535</v>
       </c>
       <c r="D18">
-        <v>1.018567789558945</v>
+        <v>1.014365157123519</v>
       </c>
       <c r="E18">
-        <v>1.000002575066083</v>
-      </c>
-      <c r="F18">
-        <v>1.023023248895709</v>
+        <v>1.00299398363207</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04737670281475</v>
+        <v>1.043090077429343</v>
       </c>
       <c r="J18">
-        <v>1.019824472143449</v>
+        <v>1.022090215657868</v>
       </c>
       <c r="K18">
-        <v>1.032073535021689</v>
+        <v>1.02794045214176</v>
       </c>
       <c r="L18">
-        <v>1.01382126406117</v>
-      </c>
-      <c r="M18">
-        <v>1.036456062472304</v>
+        <v>1.016761236370546</v>
       </c>
       <c r="N18">
-        <v>1.021272739869394</v>
+        <v>1.023541700999488</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9930588639337598</v>
+        <v>0.995141913261358</v>
       </c>
       <c r="D19">
-        <v>1.019033060299088</v>
+        <v>1.014583795906272</v>
       </c>
       <c r="E19">
-        <v>1.000486325438581</v>
-      </c>
-      <c r="F19">
-        <v>1.023536869313606</v>
+        <v>1.003234783125468</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047604695942007</v>
+        <v>1.043185498384988</v>
       </c>
       <c r="J19">
-        <v>1.020250510790166</v>
+        <v>1.022254009267027</v>
       </c>
       <c r="K19">
-        <v>1.032468324799405</v>
+        <v>1.028092234751734</v>
       </c>
       <c r="L19">
-        <v>1.01423217116188</v>
-      </c>
-      <c r="M19">
-        <v>1.036898894183465</v>
+        <v>1.016933667622715</v>
       </c>
       <c r="N19">
-        <v>1.021699383539858</v>
+        <v>1.02370572721436</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9904306282491809</v>
+        <v>0.9937448224048879</v>
       </c>
       <c r="D20">
-        <v>1.016942327387188</v>
+        <v>1.01360323406374</v>
       </c>
       <c r="E20">
-        <v>0.9983127381764213</v>
-      </c>
-      <c r="F20">
-        <v>1.021229106267258</v>
+        <v>1.002155097705988</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046579048086229</v>
+        <v>1.042756659994205</v>
       </c>
       <c r="J20">
-        <v>1.018335483032488</v>
+        <v>1.021519018523741</v>
       </c>
       <c r="K20">
-        <v>1.030693667698824</v>
+        <v>1.027411031304849</v>
       </c>
       <c r="L20">
-        <v>1.012385321073842</v>
-      </c>
-      <c r="M20">
-        <v>1.034908663485394</v>
+        <v>1.016160157875435</v>
       </c>
       <c r="N20">
-        <v>1.019781636223107</v>
+        <v>1.022969692699914</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9816462500015904</v>
+        <v>0.989125763717048</v>
       </c>
       <c r="D21">
-        <v>1.009962892824232</v>
+        <v>1.010365878295424</v>
       </c>
       <c r="E21">
-        <v>0.9910599271460985</v>
-      </c>
-      <c r="F21">
-        <v>1.01352930012191</v>
+        <v>0.9985950980578689</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043134808386772</v>
+        <v>1.041325132222767</v>
       </c>
       <c r="J21">
-        <v>1.011931894056701</v>
+        <v>1.019085274448107</v>
       </c>
       <c r="K21">
-        <v>1.024757941900813</v>
+        <v>1.025153491613518</v>
       </c>
       <c r="L21">
-        <v>1.006212674755387</v>
-      </c>
-      <c r="M21">
-        <v>1.02825881042153</v>
+        <v>1.013603135709596</v>
       </c>
       <c r="N21">
-        <v>1.013368953416471</v>
+        <v>1.020532492428538</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9759250782465612</v>
+        <v>0.9861601614148855</v>
       </c>
       <c r="D22">
-        <v>1.00542468261088</v>
+        <v>1.008291210445699</v>
       </c>
       <c r="E22">
-        <v>0.9863463190575705</v>
-      </c>
-      <c r="F22">
-        <v>1.008525844221071</v>
+        <v>0.9963171409206518</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040879592730937</v>
+        <v>1.040395726974226</v>
       </c>
       <c r="J22">
-        <v>1.007759557322004</v>
+        <v>1.017520050988658</v>
       </c>
       <c r="K22">
-        <v>1.020889436051841</v>
+        <v>1.023700186994991</v>
       </c>
       <c r="L22">
-        <v>1.002193198811579</v>
-      </c>
-      <c r="M22">
-        <v>1.023930273665865</v>
+        <v>1.011961910727999</v>
       </c>
       <c r="N22">
-        <v>1.009190691485038</v>
+        <v>1.018965046172243</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9789777388734833</v>
+        <v>0.9877382654781625</v>
       </c>
       <c r="D23">
-        <v>1.007845391099683</v>
+        <v>1.009394835040986</v>
       </c>
       <c r="E23">
-        <v>0.9888603728963342</v>
-      </c>
-      <c r="F23">
-        <v>1.011194423479095</v>
+        <v>0.9975285828484853</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04208400680698</v>
+        <v>1.040891252728361</v>
       </c>
       <c r="J23">
-        <v>1.00998592868802</v>
+        <v>1.018353201984201</v>
       </c>
       <c r="K23">
-        <v>1.022953766284114</v>
+        <v>1.02447389320748</v>
       </c>
       <c r="L23">
-        <v>1.004337772954763</v>
-      </c>
-      <c r="M23">
-        <v>1.026239578932087</v>
+        <v>1.012835207704789</v>
       </c>
       <c r="N23">
-        <v>1.011420224553762</v>
+        <v>1.019799380337763</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9905747502522579</v>
+        <v>0.9938212553221221</v>
       </c>
       <c r="D24">
-        <v>1.017056945715392</v>
+        <v>1.013656862939053</v>
       </c>
       <c r="E24">
-        <v>0.998431886550494</v>
-      </c>
-      <c r="F24">
-        <v>1.021355607234915</v>
+        <v>1.00221413042831</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046635351729204</v>
+        <v>1.042780172852347</v>
       </c>
       <c r="J24">
-        <v>1.018440507839284</v>
+        <v>1.02155924319935</v>
       </c>
       <c r="K24">
-        <v>1.030791000229387</v>
+        <v>1.027448319523906</v>
       </c>
       <c r="L24">
-        <v>1.012486596094071</v>
-      </c>
-      <c r="M24">
-        <v>1.035017793889522</v>
+        <v>1.016202474705131</v>
       </c>
       <c r="N24">
-        <v>1.019886810177175</v>
+        <v>1.023009974499175</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003259372886524</v>
+        <v>1.000628143483614</v>
       </c>
       <c r="D25">
-        <v>1.027157577469405</v>
+        <v>1.018440288726414</v>
       </c>
       <c r="E25">
-        <v>1.008937682218295</v>
-      </c>
-      <c r="F25">
-        <v>1.032510755502932</v>
+        <v>1.007488023844725</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051561124403542</v>
+        <v>1.044849028523731</v>
       </c>
       <c r="J25">
-        <v>1.027677541823352</v>
+        <v>1.025134386570909</v>
       </c>
       <c r="K25">
-        <v>1.039348443109875</v>
+        <v>1.030758931741824</v>
       </c>
       <c r="L25">
-        <v>1.02139881866256</v>
-      </c>
-      <c r="M25">
-        <v>1.044624508402775</v>
+        <v>1.019971199450139</v>
       </c>
       <c r="N25">
-        <v>1.029136961809002</v>
+        <v>1.026590194984397</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005869521037547</v>
+        <v>1.027028756080297</v>
       </c>
       <c r="D2">
-        <v>1.02213300569875</v>
+        <v>1.031212491392802</v>
       </c>
       <c r="E2">
-        <v>1.011572016694884</v>
+        <v>1.027184337646082</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046404545308249</v>
+        <v>1.034222890360825</v>
       </c>
       <c r="J2">
-        <v>1.02787608189614</v>
+        <v>1.032188907551269</v>
       </c>
       <c r="K2">
-        <v>1.033292369285181</v>
+        <v>1.034021261770401</v>
       </c>
       <c r="L2">
-        <v>1.022872455110196</v>
+        <v>1.03000480634619</v>
       </c>
       <c r="N2">
-        <v>1.02933578383147</v>
+        <v>1.033654734193721</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009573411257188</v>
+        <v>1.027803685378983</v>
       </c>
       <c r="D3">
-        <v>1.024747061836861</v>
+        <v>1.031773704430455</v>
       </c>
       <c r="E3">
-        <v>1.014470633582001</v>
+        <v>1.02783739651774</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047481267973926</v>
+        <v>1.034386620114168</v>
       </c>
       <c r="J3">
-        <v>1.029806454569745</v>
+        <v>1.032604745615784</v>
       </c>
       <c r="K3">
-        <v>1.035072795976713</v>
+        <v>1.034391655004504</v>
       </c>
       <c r="L3">
-        <v>1.02492164839413</v>
+        <v>1.030465955215684</v>
       </c>
       <c r="N3">
-        <v>1.031268897855685</v>
+        <v>1.034071162795978</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01192514402807</v>
+        <v>1.028305508122105</v>
       </c>
       <c r="D4">
-        <v>1.026408640008965</v>
+        <v>1.032137061397323</v>
       </c>
       <c r="E4">
-        <v>1.016316683375006</v>
+        <v>1.028260708966881</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048154241081489</v>
+        <v>1.034491327511651</v>
       </c>
       <c r="J4">
-        <v>1.031028645457724</v>
+        <v>1.032873536411004</v>
       </c>
       <c r="K4">
-        <v>1.036198450811624</v>
+        <v>1.034630834484209</v>
       </c>
       <c r="L4">
-        <v>1.026222089584198</v>
+        <v>1.030764404393195</v>
       </c>
       <c r="N4">
-        <v>1.032492824394913</v>
+        <v>1.034340335304958</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012903362349248</v>
+        <v>1.028516566294637</v>
       </c>
       <c r="D5">
-        <v>1.027100179874328</v>
+        <v>1.032289866134371</v>
       </c>
       <c r="E5">
-        <v>1.017085875332057</v>
+        <v>1.028438844636566</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048431567843438</v>
+        <v>1.034535049542256</v>
       </c>
       <c r="J5">
-        <v>1.031536162123187</v>
+        <v>1.032986466635506</v>
       </c>
       <c r="K5">
-        <v>1.036665487015574</v>
+        <v>1.034731266931604</v>
       </c>
       <c r="L5">
-        <v>1.026762828732274</v>
+        <v>1.0308898841184</v>
       </c>
       <c r="N5">
-        <v>1.033001061792254</v>
+        <v>1.034453425903331</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013067005384773</v>
+        <v>1.028552009224531</v>
       </c>
       <c r="D6">
-        <v>1.027215887472859</v>
+        <v>1.032315525567332</v>
       </c>
       <c r="E6">
-        <v>1.017214627459917</v>
+        <v>1.028468764610936</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048477806955384</v>
+        <v>1.034542373223841</v>
       </c>
       <c r="J6">
-        <v>1.031621011516947</v>
+        <v>1.033005424005825</v>
       </c>
       <c r="K6">
-        <v>1.03674354522863</v>
+        <v>1.0347481229865</v>
       </c>
       <c r="L6">
-        <v>1.026853275426322</v>
+        <v>1.030910953358824</v>
       </c>
       <c r="N6">
-        <v>1.033086031681886</v>
+        <v>1.034472410195292</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011938255693426</v>
+        <v>1.02830832793302</v>
       </c>
       <c r="D7">
-        <v>1.026417907635994</v>
+        <v>1.032139102989732</v>
       </c>
       <c r="E7">
-        <v>1.016326988175398</v>
+        <v>1.028263088538813</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04815796858514</v>
+        <v>1.034491912895528</v>
       </c>
       <c r="J7">
-        <v>1.031035451456723</v>
+        <v>1.032875045664722</v>
       </c>
       <c r="K7">
-        <v>1.036204715520643</v>
+        <v>1.03463217693525</v>
       </c>
       <c r="L7">
-        <v>1.02622933822344</v>
+        <v>1.030766081015354</v>
       </c>
       <c r="N7">
-        <v>1.032499640059211</v>
+        <v>1.034341846701989</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007130760329606</v>
+        <v>1.027290564840269</v>
       </c>
       <c r="D8">
-        <v>1.023022730903165</v>
+        <v>1.031402110385325</v>
       </c>
       <c r="E8">
-        <v>1.012557851029952</v>
+        <v>1.027404887610115</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046773400652884</v>
+        <v>1.034278479129495</v>
       </c>
       <c r="J8">
-        <v>1.028534117266642</v>
+        <v>1.032329499997596</v>
       </c>
       <c r="K8">
-        <v>1.03389961997911</v>
+        <v>1.034146538473983</v>
       </c>
       <c r="L8">
-        <v>1.023570363186979</v>
+        <v>1.030160641483019</v>
       </c>
       <c r="N8">
-        <v>1.029994753687673</v>
+        <v>1.033795526297441</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9983007707101519</v>
+        <v>1.025500218810762</v>
       </c>
       <c r="D9">
-        <v>1.016803153322335</v>
+        <v>1.030105163073955</v>
       </c>
       <c r="E9">
-        <v>1.005681070243104</v>
+        <v>1.025898379919762</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044147462638985</v>
+        <v>1.033892949238903</v>
       </c>
       <c r="J9">
-        <v>1.023913676167192</v>
+        <v>1.031366062748962</v>
       </c>
       <c r="K9">
-        <v>1.029629369224723</v>
+        <v>1.033287091245231</v>
       </c>
       <c r="L9">
-        <v>1.018682643613406</v>
+        <v>1.029094266481848</v>
       </c>
       <c r="N9">
-        <v>1.02536775103189</v>
+        <v>1.032830720857406</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9921517795313053</v>
+        <v>1.024308838945009</v>
       </c>
       <c r="D10">
-        <v>1.012485916412204</v>
+        <v>1.029241806907891</v>
       </c>
       <c r="E10">
-        <v>1.000925642826404</v>
+        <v>1.024898026078078</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042265267175807</v>
+        <v>1.033629640545774</v>
       </c>
       <c r="J10">
-        <v>1.020680277431227</v>
+        <v>1.030722430560646</v>
       </c>
       <c r="K10">
-        <v>1.026633334779109</v>
+        <v>1.03271172676893</v>
       </c>
       <c r="L10">
-        <v>1.015278204594242</v>
+        <v>1.028383765366788</v>
       </c>
       <c r="N10">
-        <v>1.022129760498843</v>
+        <v>1.032186174637558</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9894219139168009</v>
+        <v>1.023793499869064</v>
       </c>
       <c r="D11">
-        <v>1.010573225358838</v>
+        <v>1.02886829069914</v>
       </c>
       <c r="E11">
-        <v>0.9988229067229928</v>
+        <v>1.024465831743695</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041417516850661</v>
+        <v>1.033514144518104</v>
       </c>
       <c r="J11">
-        <v>1.019241472381052</v>
+        <v>1.030443430030799</v>
       </c>
       <c r="K11">
-        <v>1.025298463255615</v>
+        <v>1.032462035613863</v>
       </c>
       <c r="L11">
-        <v>1.013767055491331</v>
+        <v>1.028076227746639</v>
       </c>
       <c r="N11">
-        <v>1.020688912180465</v>
+        <v>1.031906777894957</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9883973477580513</v>
+        <v>1.023602162450337</v>
       </c>
       <c r="D12">
-        <v>1.009856012113062</v>
+        <v>1.028729600581146</v>
       </c>
       <c r="E12">
-        <v>0.9980350303150489</v>
+        <v>1.024305442596741</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04109756527201</v>
+        <v>1.033471022435472</v>
       </c>
       <c r="J12">
-        <v>1.018701001362166</v>
+        <v>1.030339752599397</v>
       </c>
       <c r="K12">
-        <v>1.024796791544998</v>
+        <v>1.032369207268754</v>
       </c>
       <c r="L12">
-        <v>1.013199973116705</v>
+        <v>1.027962013223487</v>
       </c>
       <c r="N12">
-        <v>1.020147673630738</v>
+        <v>1.031802953229709</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9886176067825245</v>
+        <v>1.023643201214335</v>
       </c>
       <c r="D13">
-        <v>1.010010166606495</v>
+        <v>1.028759347768825</v>
       </c>
       <c r="E13">
-        <v>0.9982043459863317</v>
+        <v>1.024339839925513</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041166427247015</v>
+        <v>1.033480282287515</v>
       </c>
       <c r="J13">
-        <v>1.018817210940551</v>
+        <v>1.030361993738743</v>
       </c>
       <c r="K13">
-        <v>1.024904669428782</v>
+        <v>1.03238912294938</v>
       </c>
       <c r="L13">
-        <v>1.01332187909314</v>
+        <v>1.027986511758658</v>
       </c>
       <c r="N13">
-        <v>1.020264048240054</v>
+        <v>1.031825225954024</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9893374413868666</v>
+        <v>1.023777682165259</v>
       </c>
       <c r="D14">
-        <v>1.010514079570856</v>
+        <v>1.028856825490658</v>
       </c>
       <c r="E14">
-        <v>0.9987579215194077</v>
+        <v>1.024452570914884</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04139117359755</v>
+        <v>1.033510584551131</v>
       </c>
       <c r="J14">
-        <v>1.019196921284777</v>
+        <v>1.03043486091585</v>
       </c>
       <c r="K14">
-        <v>1.025257115246532</v>
+        <v>1.032454364057326</v>
       </c>
       <c r="L14">
-        <v>1.013720299363934</v>
+        <v>1.02806678634953</v>
       </c>
       <c r="N14">
-        <v>1.020644297816522</v>
+        <v>1.031898196610882</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.989779540082924</v>
+        <v>1.023860551300809</v>
       </c>
       <c r="D15">
-        <v>1.010823654235293</v>
+        <v>1.028916891473283</v>
       </c>
       <c r="E15">
-        <v>0.9990980845935212</v>
+        <v>1.024522047746853</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041528972520146</v>
+        <v>1.033529225422765</v>
       </c>
       <c r="J15">
-        <v>1.019430066990564</v>
+        <v>1.030479750971645</v>
       </c>
       <c r="K15">
-        <v>1.025473488688035</v>
+        <v>1.032494550441538</v>
       </c>
       <c r="L15">
-        <v>1.013965007462428</v>
+        <v>1.02811624868964</v>
       </c>
       <c r="N15">
-        <v>1.020877774615953</v>
+        <v>1.031943150415704</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9923314949042035</v>
+        <v>1.024343051762257</v>
       </c>
       <c r="D16">
-        <v>1.012611922174676</v>
+        <v>1.029266602914157</v>
       </c>
       <c r="E16">
-        <v>1.001064252619625</v>
+        <v>1.024926729906745</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04232082790431</v>
+        <v>1.033637274495902</v>
       </c>
       <c r="J16">
-        <v>1.020774932093248</v>
+        <v>1.03074094063049</v>
       </c>
       <c r="K16">
-        <v>1.026721117735507</v>
+        <v>1.032728286382964</v>
       </c>
       <c r="L16">
-        <v>1.015377696876969</v>
+        <v>1.028404178157446</v>
       </c>
       <c r="N16">
-        <v>1.022224549581341</v>
+        <v>1.032204710993824</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.993913931188508</v>
+        <v>1.024645856463726</v>
       </c>
       <c r="D17">
-        <v>1.013721891165397</v>
+        <v>1.029486055438039</v>
       </c>
       <c r="E17">
-        <v>1.00228571382095</v>
+        <v>1.025180836248098</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042808674540101</v>
+        <v>1.033704654774372</v>
       </c>
       <c r="J17">
-        <v>1.021608013928583</v>
+        <v>1.030904697718892</v>
       </c>
       <c r="K17">
-        <v>1.027493528815577</v>
+        <v>1.032874755273379</v>
       </c>
       <c r="L17">
-        <v>1.016253784536619</v>
+        <v>1.028584820305422</v>
       </c>
       <c r="N17">
-        <v>1.023058814488438</v>
+        <v>1.032368700636075</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9948304772994535</v>
+        <v>1.024822528938316</v>
       </c>
       <c r="D18">
-        <v>1.014365157123519</v>
+        <v>1.029614089388658</v>
       </c>
       <c r="E18">
-        <v>1.00299398363207</v>
+        <v>1.025329145197571</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043090077429343</v>
+        <v>1.03374381353628</v>
       </c>
       <c r="J18">
-        <v>1.022090215657868</v>
+        <v>1.031000185077113</v>
       </c>
       <c r="K18">
-        <v>1.02794045214176</v>
+        <v>1.032960134501608</v>
       </c>
       <c r="L18">
-        <v>1.016761236370546</v>
+        <v>1.028690196717526</v>
       </c>
       <c r="N18">
-        <v>1.023541700999488</v>
+        <v>1.032464323597297</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.995141913261358</v>
+        <v>1.024882778383819</v>
       </c>
       <c r="D19">
-        <v>1.014583795906272</v>
+        <v>1.029657750856931</v>
       </c>
       <c r="E19">
-        <v>1.003234783125468</v>
+        <v>1.025379730432923</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043185498384988</v>
+        <v>1.033757141377546</v>
       </c>
       <c r="J19">
-        <v>1.022254009267027</v>
+        <v>1.03103273877275</v>
       </c>
       <c r="K19">
-        <v>1.028092234751734</v>
+        <v>1.03298923747892</v>
       </c>
       <c r="L19">
-        <v>1.016933667622715</v>
+        <v>1.028726129154387</v>
       </c>
       <c r="N19">
-        <v>1.02370572721436</v>
+        <v>1.032496923522916</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9937448224048879</v>
+        <v>1.024613363032513</v>
       </c>
       <c r="D20">
-        <v>1.01360323406374</v>
+        <v>1.02946250703791</v>
       </c>
       <c r="E20">
-        <v>1.002155097705988</v>
+        <v>1.025153563406471</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042756659994205</v>
+        <v>1.033697440294471</v>
       </c>
       <c r="J20">
-        <v>1.021519018523741</v>
+        <v>1.030887131162044</v>
       </c>
       <c r="K20">
-        <v>1.027411031304849</v>
+        <v>1.032859046081479</v>
       </c>
       <c r="L20">
-        <v>1.016160157875435</v>
+        <v>1.028565437973856</v>
       </c>
       <c r="N20">
-        <v>1.022969692699914</v>
+        <v>1.032351109132701</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.989125763717048</v>
+        <v>1.023738078585587</v>
       </c>
       <c r="D21">
-        <v>1.010365878295424</v>
+        <v>1.028828119323329</v>
       </c>
       <c r="E21">
-        <v>0.9985950980578689</v>
+        <v>1.024419370372151</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041325132222767</v>
+        <v>1.033501667403112</v>
       </c>
       <c r="J21">
-        <v>1.019085274448107</v>
+        <v>1.030413404557663</v>
       </c>
       <c r="K21">
-        <v>1.025153491613518</v>
+        <v>1.032435154427795</v>
       </c>
       <c r="L21">
-        <v>1.013603135709596</v>
+        <v>1.02804314695661</v>
       </c>
       <c r="N21">
-        <v>1.020532492428538</v>
+        <v>1.031876709782204</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9861601614148855</v>
+        <v>1.023188230535262</v>
       </c>
       <c r="D22">
-        <v>1.008291210445699</v>
+        <v>1.028429547337334</v>
       </c>
       <c r="E22">
-        <v>0.9963171409206518</v>
+        <v>1.023958605982246</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040395726974226</v>
+        <v>1.033377294874859</v>
       </c>
       <c r="J22">
-        <v>1.017520050988658</v>
+        <v>1.030115298728812</v>
       </c>
       <c r="K22">
-        <v>1.023700186994991</v>
+        <v>1.032168163565304</v>
       </c>
       <c r="L22">
-        <v>1.011961910727999</v>
+        <v>1.027714870465271</v>
       </c>
       <c r="N22">
-        <v>1.018965046172243</v>
+        <v>1.031578180608883</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9877382654781625</v>
+        <v>1.023479669447885</v>
       </c>
       <c r="D23">
-        <v>1.009394835040986</v>
+        <v>1.028640809489753</v>
       </c>
       <c r="E23">
-        <v>0.9975285828484853</v>
+        <v>1.024202784478957</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040891252728361</v>
+        <v>1.03344334836204</v>
       </c>
       <c r="J23">
-        <v>1.018353201984201</v>
+        <v>1.030273353986425</v>
       </c>
       <c r="K23">
-        <v>1.02447389320748</v>
+        <v>1.032309744881542</v>
       </c>
       <c r="L23">
-        <v>1.012835207704789</v>
+        <v>1.027888885248066</v>
       </c>
       <c r="N23">
-        <v>1.019799380337763</v>
+        <v>1.031736460323092</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9938212553221221</v>
+        <v>1.024628045256168</v>
       </c>
       <c r="D24">
-        <v>1.013656862939053</v>
+        <v>1.029473147450751</v>
       </c>
       <c r="E24">
-        <v>1.00221413042831</v>
+        <v>1.025165886542509</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042780172852347</v>
+        <v>1.033700700649394</v>
       </c>
       <c r="J24">
-        <v>1.02155924319935</v>
+        <v>1.0308950688239</v>
       </c>
       <c r="K24">
-        <v>1.027448319523906</v>
+        <v>1.032866144554888</v>
       </c>
       <c r="L24">
-        <v>1.016202474705131</v>
+        <v>1.028574195981694</v>
       </c>
       <c r="N24">
-        <v>1.023009974499175</v>
+        <v>1.032359058066947</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000628143483614</v>
+        <v>1.025962689370182</v>
       </c>
       <c r="D25">
-        <v>1.018440288726414</v>
+        <v>1.030440238550345</v>
       </c>
       <c r="E25">
-        <v>1.007488023844725</v>
+        <v>1.026287154521877</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044849028523731</v>
+        <v>1.033993730272588</v>
       </c>
       <c r="J25">
-        <v>1.025134386570909</v>
+        <v>1.031615376673928</v>
       </c>
       <c r="K25">
-        <v>1.030758931741824</v>
+        <v>1.03350970786159</v>
       </c>
       <c r="L25">
-        <v>1.019971199450139</v>
+        <v>1.029369883185305</v>
       </c>
       <c r="N25">
-        <v>1.026590194984397</v>
+        <v>1.033080388836742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027028756080297</v>
+        <v>1.005869521037547</v>
       </c>
       <c r="D2">
-        <v>1.031212491392802</v>
+        <v>1.02213300569875</v>
       </c>
       <c r="E2">
-        <v>1.027184337646082</v>
+        <v>1.011572016694885</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034222890360825</v>
+        <v>1.046404545308249</v>
       </c>
       <c r="J2">
-        <v>1.032188907551269</v>
+        <v>1.02787608189614</v>
       </c>
       <c r="K2">
-        <v>1.034021261770401</v>
+        <v>1.033292369285181</v>
       </c>
       <c r="L2">
-        <v>1.03000480634619</v>
+        <v>1.022872455110196</v>
       </c>
       <c r="N2">
-        <v>1.033654734193721</v>
+        <v>1.02933578383147</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027803685378983</v>
+        <v>1.009573411257188</v>
       </c>
       <c r="D3">
-        <v>1.031773704430455</v>
+        <v>1.02474706183686</v>
       </c>
       <c r="E3">
-        <v>1.02783739651774</v>
+        <v>1.014470633582</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034386620114168</v>
+        <v>1.047481267973926</v>
       </c>
       <c r="J3">
-        <v>1.032604745615784</v>
+        <v>1.029806454569745</v>
       </c>
       <c r="K3">
-        <v>1.034391655004504</v>
+        <v>1.035072795976712</v>
       </c>
       <c r="L3">
-        <v>1.030465955215684</v>
+        <v>1.024921648394129</v>
       </c>
       <c r="N3">
-        <v>1.034071162795978</v>
+        <v>1.031268897855685</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028305508122105</v>
+        <v>1.011925144028069</v>
       </c>
       <c r="D4">
-        <v>1.032137061397323</v>
+        <v>1.026408640008964</v>
       </c>
       <c r="E4">
-        <v>1.028260708966881</v>
+        <v>1.016316683375006</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034491327511651</v>
+        <v>1.048154241081489</v>
       </c>
       <c r="J4">
-        <v>1.032873536411004</v>
+        <v>1.031028645457724</v>
       </c>
       <c r="K4">
-        <v>1.034630834484209</v>
+        <v>1.036198450811623</v>
       </c>
       <c r="L4">
-        <v>1.030764404393195</v>
+        <v>1.026222089584197</v>
       </c>
       <c r="N4">
-        <v>1.034340335304958</v>
+        <v>1.032492824394912</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028516566294637</v>
+        <v>1.012903362349248</v>
       </c>
       <c r="D5">
-        <v>1.032289866134371</v>
+        <v>1.027100179874328</v>
       </c>
       <c r="E5">
-        <v>1.028438844636566</v>
+        <v>1.017085875332056</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034535049542256</v>
+        <v>1.048431567843437</v>
       </c>
       <c r="J5">
-        <v>1.032986466635506</v>
+        <v>1.031536162123187</v>
       </c>
       <c r="K5">
-        <v>1.034731266931604</v>
+        <v>1.036665487015573</v>
       </c>
       <c r="L5">
-        <v>1.0308898841184</v>
+        <v>1.026762828732274</v>
       </c>
       <c r="N5">
-        <v>1.034453425903331</v>
+        <v>1.033001061792254</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028552009224531</v>
+        <v>1.013067005384771</v>
       </c>
       <c r="D6">
-        <v>1.032315525567332</v>
+        <v>1.027215887472857</v>
       </c>
       <c r="E6">
-        <v>1.028468764610936</v>
+        <v>1.017214627459915</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034542373223841</v>
+        <v>1.048477806955383</v>
       </c>
       <c r="J6">
-        <v>1.033005424005825</v>
+        <v>1.031621011516946</v>
       </c>
       <c r="K6">
-        <v>1.0347481229865</v>
+        <v>1.036743545228629</v>
       </c>
       <c r="L6">
-        <v>1.030910953358824</v>
+        <v>1.026853275426321</v>
       </c>
       <c r="N6">
-        <v>1.034472410195292</v>
+        <v>1.033086031681884</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02830832793302</v>
+        <v>1.011938255693427</v>
       </c>
       <c r="D7">
-        <v>1.032139102989732</v>
+        <v>1.026417907635995</v>
       </c>
       <c r="E7">
-        <v>1.028263088538813</v>
+        <v>1.016326988175398</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034491912895528</v>
+        <v>1.04815796858514</v>
       </c>
       <c r="J7">
-        <v>1.032875045664722</v>
+        <v>1.031035451456724</v>
       </c>
       <c r="K7">
-        <v>1.03463217693525</v>
+        <v>1.036204715520643</v>
       </c>
       <c r="L7">
-        <v>1.030766081015354</v>
+        <v>1.02622933822344</v>
       </c>
       <c r="N7">
-        <v>1.034341846701989</v>
+        <v>1.032499640059212</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027290564840269</v>
+        <v>1.007130760329606</v>
       </c>
       <c r="D8">
-        <v>1.031402110385325</v>
+        <v>1.023022730903165</v>
       </c>
       <c r="E8">
-        <v>1.027404887610115</v>
+        <v>1.012557851029952</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034278479129495</v>
+        <v>1.046773400652884</v>
       </c>
       <c r="J8">
-        <v>1.032329499997596</v>
+        <v>1.028534117266642</v>
       </c>
       <c r="K8">
-        <v>1.034146538473983</v>
+        <v>1.03389961997911</v>
       </c>
       <c r="L8">
-        <v>1.030160641483019</v>
+        <v>1.023570363186979</v>
       </c>
       <c r="N8">
-        <v>1.033795526297441</v>
+        <v>1.029994753687673</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025500218810762</v>
+        <v>0.9983007707101509</v>
       </c>
       <c r="D9">
-        <v>1.030105163073955</v>
+        <v>1.016803153322334</v>
       </c>
       <c r="E9">
-        <v>1.025898379919762</v>
+        <v>1.005681070243103</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033892949238903</v>
+        <v>1.044147462638985</v>
       </c>
       <c r="J9">
-        <v>1.031366062748962</v>
+        <v>1.023913676167192</v>
       </c>
       <c r="K9">
-        <v>1.033287091245231</v>
+        <v>1.029629369224723</v>
       </c>
       <c r="L9">
-        <v>1.029094266481848</v>
+        <v>1.018682643613405</v>
       </c>
       <c r="N9">
-        <v>1.032830720857406</v>
+        <v>1.025367751031889</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024308838945009</v>
+        <v>0.9921517795313053</v>
       </c>
       <c r="D10">
-        <v>1.029241806907891</v>
+        <v>1.012485916412204</v>
       </c>
       <c r="E10">
-        <v>1.024898026078078</v>
+        <v>1.000925642826404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033629640545774</v>
+        <v>1.042265267175807</v>
       </c>
       <c r="J10">
-        <v>1.030722430560646</v>
+        <v>1.020680277431227</v>
       </c>
       <c r="K10">
-        <v>1.03271172676893</v>
+        <v>1.026633334779109</v>
       </c>
       <c r="L10">
-        <v>1.028383765366788</v>
+        <v>1.015278204594241</v>
       </c>
       <c r="N10">
-        <v>1.032186174637558</v>
+        <v>1.022129760498843</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023793499869064</v>
+        <v>0.9894219139168021</v>
       </c>
       <c r="D11">
-        <v>1.02886829069914</v>
+        <v>1.01057322535884</v>
       </c>
       <c r="E11">
-        <v>1.024465831743695</v>
+        <v>0.9988229067229938</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033514144518104</v>
+        <v>1.041417516850661</v>
       </c>
       <c r="J11">
-        <v>1.030443430030799</v>
+        <v>1.019241472381053</v>
       </c>
       <c r="K11">
-        <v>1.032462035613863</v>
+        <v>1.025298463255616</v>
       </c>
       <c r="L11">
-        <v>1.028076227746639</v>
+        <v>1.013767055491332</v>
       </c>
       <c r="N11">
-        <v>1.031906777894957</v>
+        <v>1.020688912180466</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023602162450337</v>
+        <v>0.9883973477580511</v>
       </c>
       <c r="D12">
-        <v>1.028729600581146</v>
+        <v>1.009856012113062</v>
       </c>
       <c r="E12">
-        <v>1.024305442596741</v>
+        <v>0.9980350303150488</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033471022435472</v>
+        <v>1.04109756527201</v>
       </c>
       <c r="J12">
-        <v>1.030339752599397</v>
+        <v>1.018701001362166</v>
       </c>
       <c r="K12">
-        <v>1.032369207268754</v>
+        <v>1.024796791544998</v>
       </c>
       <c r="L12">
-        <v>1.027962013223487</v>
+        <v>1.013199973116705</v>
       </c>
       <c r="N12">
-        <v>1.031802953229709</v>
+        <v>1.020147673630738</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023643201214335</v>
+        <v>0.988617606782524</v>
       </c>
       <c r="D13">
-        <v>1.028759347768825</v>
+        <v>1.010010166606495</v>
       </c>
       <c r="E13">
-        <v>1.024339839925513</v>
+        <v>0.9982043459863309</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033480282287515</v>
+        <v>1.041166427247015</v>
       </c>
       <c r="J13">
-        <v>1.030361993738743</v>
+        <v>1.01881721094055</v>
       </c>
       <c r="K13">
-        <v>1.03238912294938</v>
+        <v>1.024904669428781</v>
       </c>
       <c r="L13">
-        <v>1.027986511758658</v>
+        <v>1.013321879093139</v>
       </c>
       <c r="N13">
-        <v>1.031825225954024</v>
+        <v>1.020264048240053</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023777682165259</v>
+        <v>0.9893374413868662</v>
       </c>
       <c r="D14">
-        <v>1.028856825490658</v>
+        <v>1.010514079570856</v>
       </c>
       <c r="E14">
-        <v>1.024452570914884</v>
+        <v>0.9987579215194071</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033510584551131</v>
+        <v>1.041391173597549</v>
       </c>
       <c r="J14">
-        <v>1.03043486091585</v>
+        <v>1.019196921284776</v>
       </c>
       <c r="K14">
-        <v>1.032454364057326</v>
+        <v>1.025257115246531</v>
       </c>
       <c r="L14">
-        <v>1.02806678634953</v>
+        <v>1.013720299363934</v>
       </c>
       <c r="N14">
-        <v>1.031898196610882</v>
+        <v>1.020644297816522</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023860551300809</v>
+        <v>0.989779540082924</v>
       </c>
       <c r="D15">
-        <v>1.028916891473283</v>
+        <v>1.010823654235294</v>
       </c>
       <c r="E15">
-        <v>1.024522047746853</v>
+        <v>0.9990980845935211</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033529225422765</v>
+        <v>1.041528972520147</v>
       </c>
       <c r="J15">
-        <v>1.030479750971645</v>
+        <v>1.019430066990564</v>
       </c>
       <c r="K15">
-        <v>1.032494550441538</v>
+        <v>1.025473488688035</v>
       </c>
       <c r="L15">
-        <v>1.02811624868964</v>
+        <v>1.013965007462428</v>
       </c>
       <c r="N15">
-        <v>1.031943150415704</v>
+        <v>1.020877774615953</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024343051762257</v>
+        <v>0.992331494904202</v>
       </c>
       <c r="D16">
-        <v>1.029266602914157</v>
+        <v>1.012611922174675</v>
       </c>
       <c r="E16">
-        <v>1.024926729906745</v>
+        <v>1.001064252619623</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033637274495902</v>
+        <v>1.042320827904309</v>
       </c>
       <c r="J16">
-        <v>1.03074094063049</v>
+        <v>1.020774932093246</v>
       </c>
       <c r="K16">
-        <v>1.032728286382964</v>
+        <v>1.026721117735506</v>
       </c>
       <c r="L16">
-        <v>1.028404178157446</v>
+        <v>1.015377696876968</v>
       </c>
       <c r="N16">
-        <v>1.032204710993824</v>
+        <v>1.02222454958134</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024645856463726</v>
+        <v>0.9939139311885076</v>
       </c>
       <c r="D17">
-        <v>1.029486055438039</v>
+        <v>1.013721891165396</v>
       </c>
       <c r="E17">
-        <v>1.025180836248098</v>
+        <v>1.00228571382095</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033704654774372</v>
+        <v>1.042808674540101</v>
       </c>
       <c r="J17">
-        <v>1.030904697718892</v>
+        <v>1.021608013928582</v>
       </c>
       <c r="K17">
-        <v>1.032874755273379</v>
+        <v>1.027493528815576</v>
       </c>
       <c r="L17">
-        <v>1.028584820305422</v>
+        <v>1.016253784536619</v>
       </c>
       <c r="N17">
-        <v>1.032368700636075</v>
+        <v>1.023058814488438</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024822528938316</v>
+        <v>0.9948304772994538</v>
       </c>
       <c r="D18">
-        <v>1.029614089388658</v>
+        <v>1.014365157123519</v>
       </c>
       <c r="E18">
-        <v>1.025329145197571</v>
+        <v>1.00299398363207</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03374381353628</v>
+        <v>1.043090077429343</v>
       </c>
       <c r="J18">
-        <v>1.031000185077113</v>
+        <v>1.022090215657868</v>
       </c>
       <c r="K18">
-        <v>1.032960134501608</v>
+        <v>1.027940452141761</v>
       </c>
       <c r="L18">
-        <v>1.028690196717526</v>
+        <v>1.016761236370547</v>
       </c>
       <c r="N18">
-        <v>1.032464323597297</v>
+        <v>1.023541700999488</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024882778383819</v>
+        <v>0.9951419132613574</v>
       </c>
       <c r="D19">
-        <v>1.029657750856931</v>
+        <v>1.014583795906272</v>
       </c>
       <c r="E19">
-        <v>1.025379730432923</v>
+        <v>1.003234783125467</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033757141377546</v>
+        <v>1.043185498384988</v>
       </c>
       <c r="J19">
-        <v>1.03103273877275</v>
+        <v>1.022254009267027</v>
       </c>
       <c r="K19">
-        <v>1.03298923747892</v>
+        <v>1.028092234751734</v>
       </c>
       <c r="L19">
-        <v>1.028726129154387</v>
+        <v>1.016933667622715</v>
       </c>
       <c r="N19">
-        <v>1.032496923522916</v>
+        <v>1.02370572721436</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024613363032513</v>
+        <v>0.9937448224048874</v>
       </c>
       <c r="D20">
-        <v>1.02946250703791</v>
+        <v>1.01360323406374</v>
       </c>
       <c r="E20">
-        <v>1.025153563406471</v>
+        <v>1.002155097705988</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033697440294471</v>
+        <v>1.042756659994205</v>
       </c>
       <c r="J20">
-        <v>1.030887131162044</v>
+        <v>1.021519018523741</v>
       </c>
       <c r="K20">
-        <v>1.032859046081479</v>
+        <v>1.027411031304848</v>
       </c>
       <c r="L20">
-        <v>1.028565437973856</v>
+        <v>1.016160157875434</v>
       </c>
       <c r="N20">
-        <v>1.032351109132701</v>
+        <v>1.022969692699914</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023738078585587</v>
+        <v>0.9891257637170482</v>
       </c>
       <c r="D21">
-        <v>1.028828119323329</v>
+        <v>1.010365878295425</v>
       </c>
       <c r="E21">
-        <v>1.024419370372151</v>
+        <v>0.9985950980578688</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033501667403112</v>
+        <v>1.041325132222767</v>
       </c>
       <c r="J21">
-        <v>1.030413404557663</v>
+        <v>1.019085274448107</v>
       </c>
       <c r="K21">
-        <v>1.032435154427795</v>
+        <v>1.025153491613518</v>
       </c>
       <c r="L21">
-        <v>1.02804314695661</v>
+        <v>1.013603135709596</v>
       </c>
       <c r="N21">
-        <v>1.031876709782204</v>
+        <v>1.020532492428538</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023188230535262</v>
+        <v>0.9861601614148852</v>
       </c>
       <c r="D22">
-        <v>1.028429547337334</v>
+        <v>1.008291210445699</v>
       </c>
       <c r="E22">
-        <v>1.023958605982246</v>
+        <v>0.9963171409206512</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033377294874859</v>
+        <v>1.040395726974226</v>
       </c>
       <c r="J22">
-        <v>1.030115298728812</v>
+        <v>1.017520050988657</v>
       </c>
       <c r="K22">
-        <v>1.032168163565304</v>
+        <v>1.023700186994991</v>
       </c>
       <c r="L22">
-        <v>1.027714870465271</v>
+        <v>1.011961910727998</v>
       </c>
       <c r="N22">
-        <v>1.031578180608883</v>
+        <v>1.018965046172243</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023479669447885</v>
+        <v>0.9877382654781622</v>
       </c>
       <c r="D23">
-        <v>1.028640809489753</v>
+        <v>1.009394835040986</v>
       </c>
       <c r="E23">
-        <v>1.024202784478957</v>
+        <v>0.997528582848485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03344334836204</v>
+        <v>1.040891252728361</v>
       </c>
       <c r="J23">
-        <v>1.030273353986425</v>
+        <v>1.018353201984201</v>
       </c>
       <c r="K23">
-        <v>1.032309744881542</v>
+        <v>1.024473893207479</v>
       </c>
       <c r="L23">
-        <v>1.027888885248066</v>
+        <v>1.012835207704789</v>
       </c>
       <c r="N23">
-        <v>1.031736460323092</v>
+        <v>1.019799380337763</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024628045256168</v>
+        <v>0.9938212553221211</v>
       </c>
       <c r="D24">
-        <v>1.029473147450751</v>
+        <v>1.013656862939052</v>
       </c>
       <c r="E24">
-        <v>1.025165886542509</v>
+        <v>1.002214130428309</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033700700649394</v>
+        <v>1.042780172852346</v>
       </c>
       <c r="J24">
-        <v>1.0308950688239</v>
+        <v>1.021559243199349</v>
       </c>
       <c r="K24">
-        <v>1.032866144554888</v>
+        <v>1.027448319523905</v>
       </c>
       <c r="L24">
-        <v>1.028574195981694</v>
+        <v>1.016202474705129</v>
       </c>
       <c r="N24">
-        <v>1.032359058066947</v>
+        <v>1.023009974499174</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025962689370182</v>
+        <v>1.000628143483615</v>
       </c>
       <c r="D25">
-        <v>1.030440238550345</v>
+        <v>1.018440288726414</v>
       </c>
       <c r="E25">
-        <v>1.026287154521877</v>
+        <v>1.007488023844726</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033993730272588</v>
+        <v>1.044849028523731</v>
       </c>
       <c r="J25">
-        <v>1.031615376673928</v>
+        <v>1.025134386570909</v>
       </c>
       <c r="K25">
-        <v>1.03350970786159</v>
+        <v>1.030758931741824</v>
       </c>
       <c r="L25">
-        <v>1.029369883185305</v>
+        <v>1.019971199450139</v>
       </c>
       <c r="N25">
-        <v>1.033080388836742</v>
+        <v>1.026590194984397</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005869521037547</v>
+        <v>1.011216666138674</v>
       </c>
       <c r="D2">
-        <v>1.02213300569875</v>
+        <v>1.033644301920839</v>
       </c>
       <c r="E2">
-        <v>1.011572016694885</v>
+        <v>1.016158228503517</v>
+      </c>
+      <c r="F2">
+        <v>1.041028275695452</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046404545308249</v>
+        <v>1.053297861458439</v>
       </c>
       <c r="J2">
-        <v>1.02787608189614</v>
+        <v>1.033066987337202</v>
       </c>
       <c r="K2">
-        <v>1.033292369285181</v>
+        <v>1.044654002409357</v>
       </c>
       <c r="L2">
-        <v>1.022872455110196</v>
+        <v>1.027396951336164</v>
+      </c>
+      <c r="M2">
+        <v>1.051944148521266</v>
       </c>
       <c r="N2">
-        <v>1.02933578383147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014919204894208</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.049682642276532</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042644526909953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009573411257188</v>
+        <v>1.014438918667323</v>
       </c>
       <c r="D3">
-        <v>1.02474706183686</v>
+        <v>1.035791459410711</v>
       </c>
       <c r="E3">
-        <v>1.014470633582</v>
+        <v>1.018649577841096</v>
+      </c>
+      <c r="F3">
+        <v>1.043311646027515</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047481267973926</v>
+        <v>1.05411128598851</v>
       </c>
       <c r="J3">
-        <v>1.029806454569745</v>
+        <v>1.034543556524072</v>
       </c>
       <c r="K3">
-        <v>1.035072795976712</v>
+        <v>1.045985981522943</v>
       </c>
       <c r="L3">
-        <v>1.024921648394129</v>
+        <v>1.02904926772329</v>
+      </c>
+      <c r="M3">
+        <v>1.053418789162968</v>
       </c>
       <c r="N3">
-        <v>1.031268897855685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015415178794902</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050849705937295</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043583689928647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011925144028069</v>
+        <v>1.016491255554861</v>
       </c>
       <c r="D4">
-        <v>1.026408640008964</v>
+        <v>1.037162951441178</v>
       </c>
       <c r="E4">
-        <v>1.016316683375006</v>
+        <v>1.02024194914173</v>
+      </c>
+      <c r="F4">
+        <v>1.044772246896741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048154241081489</v>
+        <v>1.054621084393103</v>
       </c>
       <c r="J4">
-        <v>1.031028645457724</v>
+        <v>1.0354823180466</v>
       </c>
       <c r="K4">
-        <v>1.036198450811623</v>
+        <v>1.046832624285393</v>
       </c>
       <c r="L4">
-        <v>1.026222089584197</v>
+        <v>1.030102059029845</v>
+      </c>
+      <c r="M4">
+        <v>1.054358748455237</v>
       </c>
       <c r="N4">
-        <v>1.032492824394912</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015730553917975</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.05159360984189</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044183222273081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012903362349248</v>
+        <v>1.017348916585038</v>
       </c>
       <c r="D5">
-        <v>1.027100179874328</v>
+        <v>1.037738878304912</v>
       </c>
       <c r="E5">
-        <v>1.017085875332056</v>
+        <v>1.020909021586705</v>
+      </c>
+      <c r="F5">
+        <v>1.045384841678435</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048431567843437</v>
+        <v>1.054833482740977</v>
       </c>
       <c r="J5">
-        <v>1.031536162123187</v>
+        <v>1.035875481815964</v>
       </c>
       <c r="K5">
-        <v>1.036665487015573</v>
+        <v>1.047188471842834</v>
       </c>
       <c r="L5">
-        <v>1.026762828732274</v>
+        <v>1.030543033816532</v>
+      </c>
+      <c r="M5">
+        <v>1.054753052129894</v>
       </c>
       <c r="N5">
-        <v>1.033001061792254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015862915137722</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051905669990751</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044441961082707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013067005384771</v>
+        <v>1.017495502459531</v>
       </c>
       <c r="D6">
-        <v>1.027215887472857</v>
+        <v>1.03783964310764</v>
       </c>
       <c r="E6">
-        <v>1.017214627459915</v>
+        <v>1.021023492963143</v>
+      </c>
+      <c r="F6">
+        <v>1.045490530661002</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048477806955383</v>
+        <v>1.054871340996173</v>
       </c>
       <c r="J6">
-        <v>1.031621011516946</v>
+        <v>1.035944219505773</v>
       </c>
       <c r="K6">
-        <v>1.036743545228629</v>
+        <v>1.047252273342007</v>
       </c>
       <c r="L6">
-        <v>1.026853275426321</v>
+        <v>1.030619556207954</v>
+      </c>
+      <c r="M6">
+        <v>1.054822092341232</v>
       </c>
       <c r="N6">
-        <v>1.033086031681884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015886382245949</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051960309840065</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044495765925984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011938255693427</v>
+        <v>1.016510862850223</v>
       </c>
       <c r="D7">
-        <v>1.026417907635995</v>
+        <v>1.037182203041068</v>
       </c>
       <c r="E7">
-        <v>1.016326988175398</v>
+        <v>1.020258227799238</v>
+      </c>
+      <c r="F7">
+        <v>1.044788653379545</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04815796858514</v>
+        <v>1.054630432273761</v>
       </c>
       <c r="J7">
-        <v>1.031035451456724</v>
+        <v>1.035495505666566</v>
       </c>
       <c r="K7">
-        <v>1.036204715520643</v>
+        <v>1.046848805591211</v>
       </c>
       <c r="L7">
-        <v>1.02622933822344</v>
+        <v>1.030115229225627</v>
+      </c>
+      <c r="M7">
+        <v>1.054372146879446</v>
       </c>
       <c r="N7">
-        <v>1.032499640059212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01573587769778</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.05160421363628</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044214656022642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007130760329606</v>
+        <v>1.012322623116053</v>
       </c>
       <c r="D8">
-        <v>1.023022730903165</v>
+        <v>1.034387923736529</v>
       </c>
       <c r="E8">
-        <v>1.012557851029952</v>
+        <v>1.01701348998347</v>
+      </c>
+      <c r="F8">
+        <v>1.04181363656816</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046773400652884</v>
+        <v>1.05358422632558</v>
       </c>
       <c r="J8">
-        <v>1.028534117266642</v>
+        <v>1.033579312333784</v>
       </c>
       <c r="K8">
-        <v>1.03389961997911</v>
+        <v>1.045121395955801</v>
       </c>
       <c r="L8">
-        <v>1.023570363186979</v>
+        <v>1.027967830696049</v>
+      </c>
+      <c r="M8">
+        <v>1.05245550608452</v>
       </c>
       <c r="N8">
-        <v>1.029994753687673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015092432712736</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.05008734232178</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042997785747088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9983007707101509</v>
+        <v>1.004669958894058</v>
       </c>
       <c r="D9">
-        <v>1.016803153322334</v>
+        <v>1.02930490778934</v>
       </c>
       <c r="E9">
-        <v>1.005681070243103</v>
+        <v>1.011128157561488</v>
+      </c>
+      <c r="F9">
+        <v>1.036424890165321</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044147462638985</v>
+        <v>1.051601506659675</v>
       </c>
       <c r="J9">
-        <v>1.023913676167192</v>
+        <v>1.030058879831364</v>
       </c>
       <c r="K9">
-        <v>1.029629369224723</v>
+        <v>1.041939775215539</v>
       </c>
       <c r="L9">
-        <v>1.018682643613405</v>
+        <v>1.024043231876394</v>
+      </c>
+      <c r="M9">
+        <v>1.048953403353139</v>
       </c>
       <c r="N9">
-        <v>1.025367751031889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013909237874382</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047315693886526</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040745039353794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9921517795313053</v>
+        <v>0.9994181223620897</v>
       </c>
       <c r="D10">
-        <v>1.012485916412204</v>
+        <v>1.025867374714844</v>
       </c>
       <c r="E10">
-        <v>1.000925642826404</v>
+        <v>1.007126681554564</v>
+      </c>
+      <c r="F10">
+        <v>1.032856125757232</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042265267175807</v>
+        <v>1.050222940706096</v>
       </c>
       <c r="J10">
-        <v>1.020680277431227</v>
+        <v>1.027654845626253</v>
       </c>
       <c r="K10">
-        <v>1.026633334779109</v>
+        <v>1.039784781139378</v>
       </c>
       <c r="L10">
-        <v>1.015278204594241</v>
+        <v>1.021368442821605</v>
+      </c>
+      <c r="M10">
+        <v>1.046656454432818</v>
       </c>
       <c r="N10">
-        <v>1.022129760498843</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013105980777354</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045548828387924</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039238065588538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9894219139168021</v>
+        <v>0.9973804756855913</v>
       </c>
       <c r="D11">
-        <v>1.01057322535884</v>
+        <v>1.024743087291152</v>
       </c>
       <c r="E11">
-        <v>0.9988229067229938</v>
+        <v>1.005623437951635</v>
+      </c>
+      <c r="F11">
+        <v>1.032214304261571</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041417516850661</v>
+        <v>1.049853626430125</v>
       </c>
       <c r="J11">
-        <v>1.019241472381053</v>
+        <v>1.026862637439126</v>
       </c>
       <c r="K11">
-        <v>1.025298463255616</v>
+        <v>1.039212998605854</v>
       </c>
       <c r="L11">
-        <v>1.013767055491332</v>
+        <v>1.020440077991929</v>
+      </c>
+      <c r="M11">
+        <v>1.046553244917062</v>
       </c>
       <c r="N11">
-        <v>1.020688912180466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012876397149254</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04589965351827</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038866469527908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9883973477580511</v>
+        <v>0.9967015472770049</v>
       </c>
       <c r="D12">
-        <v>1.009856012113062</v>
+        <v>1.024439511173592</v>
       </c>
       <c r="E12">
-        <v>0.9980350303150488</v>
+        <v>1.005139036449213</v>
+      </c>
+      <c r="F12">
+        <v>1.032291296518227</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04109756527201</v>
+        <v>1.049789213128806</v>
       </c>
       <c r="J12">
-        <v>1.018701001362166</v>
+        <v>1.026646162552654</v>
       </c>
       <c r="K12">
-        <v>1.024796791544998</v>
+        <v>1.039113003581158</v>
       </c>
       <c r="L12">
-        <v>1.013199973116705</v>
+        <v>1.020168438496565</v>
+      </c>
+      <c r="M12">
+        <v>1.046824936208046</v>
       </c>
       <c r="N12">
-        <v>1.020147673630738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01283118175258</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.046438374253814</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038795770501375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.988617606782524</v>
+        <v>0.9970341368101839</v>
       </c>
       <c r="D13">
-        <v>1.010010166606495</v>
+        <v>1.024763878166606</v>
       </c>
       <c r="E13">
-        <v>0.9982043459863309</v>
+        <v>1.005414295398045</v>
+      </c>
+      <c r="F13">
+        <v>1.032951441268865</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041166427247015</v>
+        <v>1.049969530006143</v>
       </c>
       <c r="J13">
-        <v>1.01881721094055</v>
+        <v>1.026871467518677</v>
       </c>
       <c r="K13">
-        <v>1.024904669428781</v>
+        <v>1.039389043054502</v>
       </c>
       <c r="L13">
-        <v>1.013321879093139</v>
+        <v>1.020394808031225</v>
+      </c>
+      <c r="M13">
+        <v>1.047431438894049</v>
       </c>
       <c r="N13">
-        <v>1.020264048240053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012930502743872</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047192642373615</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038988457949544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9893374413868662</v>
+        <v>0.9977253683541339</v>
       </c>
       <c r="D14">
-        <v>1.010514079570856</v>
+        <v>1.025275355058118</v>
       </c>
       <c r="E14">
-        <v>0.9987579215194071</v>
+        <v>1.005951188950751</v>
+      </c>
+      <c r="F14">
+        <v>1.033676372760618</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041391173597549</v>
+        <v>1.050206004330982</v>
       </c>
       <c r="J14">
-        <v>1.019196921284776</v>
+        <v>1.027228871566003</v>
       </c>
       <c r="K14">
-        <v>1.025257115246531</v>
+        <v>1.039752219154032</v>
       </c>
       <c r="L14">
-        <v>1.013720299363934</v>
+        <v>1.02077856330379</v>
+      </c>
+      <c r="M14">
+        <v>1.048006144036205</v>
       </c>
       <c r="N14">
-        <v>1.020644297816522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013065413424524</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047819183820517</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039246649858524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.989779540082924</v>
+        <v>0.9981186214684532</v>
       </c>
       <c r="D15">
-        <v>1.010823654235294</v>
+        <v>1.02554583867888</v>
       </c>
       <c r="E15">
-        <v>0.9990980845935211</v>
+        <v>1.006252096606418</v>
+      </c>
+      <c r="F15">
+        <v>1.033997937927843</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041528972520147</v>
+        <v>1.050322767084199</v>
       </c>
       <c r="J15">
-        <v>1.019430066990564</v>
+        <v>1.027418313940352</v>
       </c>
       <c r="K15">
-        <v>1.025473488688035</v>
+        <v>1.039932214530517</v>
       </c>
       <c r="L15">
-        <v>1.013965007462428</v>
+        <v>1.020985785100665</v>
+      </c>
+      <c r="M15">
+        <v>1.048237443120162</v>
       </c>
       <c r="N15">
-        <v>1.020877774615953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013132234602334</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04803932655609</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03937975087111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.992331494904202</v>
+        <v>1.000276326313137</v>
       </c>
       <c r="D16">
-        <v>1.012611922174675</v>
+        <v>1.026946248009795</v>
       </c>
       <c r="E16">
-        <v>1.001064252619623</v>
+        <v>1.00788646273926</v>
+      </c>
+      <c r="F16">
+        <v>1.035421026474906</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042320827904309</v>
+        <v>1.050891225718594</v>
       </c>
       <c r="J16">
-        <v>1.020774932093246</v>
+        <v>1.028402234950417</v>
       </c>
       <c r="K16">
-        <v>1.026721117735506</v>
+        <v>1.04081014568642</v>
       </c>
       <c r="L16">
-        <v>1.015377696876968</v>
+        <v>1.02207850602678</v>
+      </c>
+      <c r="M16">
+        <v>1.04914400810382</v>
       </c>
       <c r="N16">
-        <v>1.02222454958134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013456880986788</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04871738231128</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040003624532794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9939139311885076</v>
+        <v>1.001572732707161</v>
       </c>
       <c r="D17">
-        <v>1.013721891165396</v>
+        <v>1.027754939446909</v>
       </c>
       <c r="E17">
-        <v>1.00228571382095</v>
+        <v>1.008863083399533</v>
+      </c>
+      <c r="F17">
+        <v>1.036128747872032</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042808674540101</v>
+        <v>1.051201583051185</v>
       </c>
       <c r="J17">
-        <v>1.021608013928582</v>
+        <v>1.028970606988778</v>
       </c>
       <c r="K17">
-        <v>1.027493528815576</v>
+        <v>1.041293216808425</v>
       </c>
       <c r="L17">
-        <v>1.016253784536619</v>
+        <v>1.022717475018794</v>
+      </c>
+      <c r="M17">
+        <v>1.049531635835061</v>
       </c>
       <c r="N17">
-        <v>1.023058814488438</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013635449544153</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048895521181834</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040347745627284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9948304772994538</v>
+        <v>1.002238428800703</v>
       </c>
       <c r="D18">
-        <v>1.014365157123519</v>
+        <v>1.028103146738555</v>
       </c>
       <c r="E18">
-        <v>1.00299398363207</v>
+        <v>1.009351350096307</v>
+      </c>
+      <c r="F18">
+        <v>1.036230007796682</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043090077429343</v>
+        <v>1.051303347022012</v>
       </c>
       <c r="J18">
-        <v>1.022090215657868</v>
+        <v>1.02921713690001</v>
       </c>
       <c r="K18">
-        <v>1.027940452141761</v>
+        <v>1.041453796318182</v>
       </c>
       <c r="L18">
-        <v>1.016761236370547</v>
+        <v>1.023010596013199</v>
+      </c>
+      <c r="M18">
+        <v>1.04945135505913</v>
       </c>
       <c r="N18">
-        <v>1.023541700999488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013697665083178</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04859598887252</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04044970688337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9951419132613574</v>
+        <v>1.002329172678589</v>
       </c>
       <c r="D19">
-        <v>1.014583795906272</v>
+        <v>1.028033199297058</v>
       </c>
       <c r="E19">
-        <v>1.003234783125467</v>
+        <v>1.009393948318269</v>
+      </c>
+      <c r="F19">
+        <v>1.035772708756378</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043185498384988</v>
+        <v>1.051215867158363</v>
       </c>
       <c r="J19">
-        <v>1.022254009267027</v>
+        <v>1.029170360063663</v>
       </c>
       <c r="K19">
-        <v>1.028092234751734</v>
+        <v>1.041322926878466</v>
       </c>
       <c r="L19">
-        <v>1.016933667622715</v>
+        <v>1.022988792032546</v>
+      </c>
+      <c r="M19">
+        <v>1.04893987214478</v>
       </c>
       <c r="N19">
-        <v>1.02370572721436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013656508402948</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.047868548914412</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040363539117881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9937448224048874</v>
+        <v>1.00079791428905</v>
       </c>
       <c r="D20">
-        <v>1.01360323406374</v>
+        <v>1.026784808375364</v>
       </c>
       <c r="E20">
-        <v>1.002155097705988</v>
+        <v>1.008178791323039</v>
+      </c>
+      <c r="F20">
+        <v>1.033801879942331</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042756659994205</v>
+        <v>1.050599688584135</v>
       </c>
       <c r="J20">
-        <v>1.021519018523741</v>
+        <v>1.028298112291646</v>
       </c>
       <c r="K20">
-        <v>1.027411031304848</v>
+        <v>1.040372480972939</v>
       </c>
       <c r="L20">
-        <v>1.016160157875434</v>
+        <v>1.022079335093196</v>
+      </c>
+      <c r="M20">
+        <v>1.047275310193545</v>
       </c>
       <c r="N20">
-        <v>1.022969692699914</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013323645408949</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046028123350984</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03969544275648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9891257637170482</v>
+        <v>0.9968078367503066</v>
       </c>
       <c r="D21">
-        <v>1.010365878295425</v>
+        <v>1.024139096880076</v>
       </c>
       <c r="E21">
-        <v>0.9985950980578688</v>
+        <v>1.005141862377656</v>
+      </c>
+      <c r="F21">
+        <v>1.030959309731794</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041325132222767</v>
+        <v>1.049502088413925</v>
       </c>
       <c r="J21">
-        <v>1.019085274448107</v>
+        <v>1.026439629946108</v>
       </c>
       <c r="K21">
-        <v>1.025153491613518</v>
+        <v>1.038677137182706</v>
       </c>
       <c r="L21">
-        <v>1.013603135709596</v>
+        <v>1.020026471032056</v>
+      </c>
+      <c r="M21">
+        <v>1.045376964506395</v>
       </c>
       <c r="N21">
-        <v>1.020532492428538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012696077495156</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.044485203327987</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03849998969952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9861601614148852</v>
+        <v>0.9942649867280791</v>
       </c>
       <c r="D22">
-        <v>1.008291210445699</v>
+        <v>1.022465563026838</v>
       </c>
       <c r="E22">
-        <v>0.9963171409206512</v>
+        <v>1.003215060450084</v>
+      </c>
+      <c r="F22">
+        <v>1.029200343344628</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040395726974226</v>
+        <v>1.048801449991001</v>
       </c>
       <c r="J22">
-        <v>1.017520050988657</v>
+        <v>1.025258975441839</v>
       </c>
       <c r="K22">
-        <v>1.023700186994991</v>
+        <v>1.037604734297959</v>
       </c>
       <c r="L22">
-        <v>1.011961910727998</v>
+        <v>1.018723094294287</v>
+      </c>
+      <c r="M22">
+        <v>1.044214712249102</v>
       </c>
       <c r="N22">
-        <v>1.018965046172243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012298415796351</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043565363062951</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037728319982815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9877382654781622</v>
+        <v>0.995609786634734</v>
       </c>
       <c r="D23">
-        <v>1.009394835040986</v>
+        <v>1.023344813564551</v>
       </c>
       <c r="E23">
-        <v>0.997528582848485</v>
+        <v>1.004232222587637</v>
+      </c>
+      <c r="F23">
+        <v>1.03012763765134</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040891252728361</v>
+        <v>1.049169053647068</v>
       </c>
       <c r="J23">
-        <v>1.018353201984201</v>
+        <v>1.025879794058664</v>
       </c>
       <c r="K23">
-        <v>1.024473893207479</v>
+        <v>1.038165126742241</v>
       </c>
       <c r="L23">
-        <v>1.012835207704789</v>
+        <v>1.019409422492984</v>
+      </c>
+      <c r="M23">
+        <v>1.04482543135288</v>
       </c>
       <c r="N23">
-        <v>1.019799380337763</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012506557609544</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044048704081805</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038114950051848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9938212553221211</v>
+        <v>1.000824017001372</v>
       </c>
       <c r="D24">
-        <v>1.013656862939052</v>
+        <v>1.026773657587735</v>
       </c>
       <c r="E24">
-        <v>1.002214130428309</v>
+        <v>1.008192959724729</v>
+      </c>
+      <c r="F24">
+        <v>1.033743666905819</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042780172852346</v>
+        <v>1.050583533992246</v>
       </c>
       <c r="J24">
-        <v>1.021559243199349</v>
+        <v>1.028290383921689</v>
       </c>
       <c r="K24">
-        <v>1.027448319523905</v>
+        <v>1.040346363978229</v>
       </c>
       <c r="L24">
-        <v>1.016202474705129</v>
+        <v>1.022077709385914</v>
+      </c>
+      <c r="M24">
+        <v>1.047203032416895</v>
       </c>
       <c r="N24">
-        <v>1.023009974499174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013316471464091</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.045930404286684</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039649711717777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000628143483615</v>
+        <v>1.006693296195727</v>
       </c>
       <c r="D25">
-        <v>1.018440288726414</v>
+        <v>1.030654175405975</v>
       </c>
       <c r="E25">
-        <v>1.007488023844726</v>
+        <v>1.012680542228034</v>
+      </c>
+      <c r="F25">
+        <v>1.03784717834519</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044849028523731</v>
+        <v>1.052139763617031</v>
       </c>
       <c r="J25">
-        <v>1.025134386570909</v>
+        <v>1.030997484930015</v>
       </c>
       <c r="K25">
-        <v>1.030758931741824</v>
+        <v>1.042794557502381</v>
       </c>
       <c r="L25">
-        <v>1.019971199450139</v>
+        <v>1.025085147401339</v>
+      </c>
+      <c r="M25">
+        <v>1.0498850607283</v>
       </c>
       <c r="N25">
-        <v>1.026590194984397</v>
+        <v>1.014226166160911</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048053030979125</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041377846864013</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011216666138674</v>
+        <v>1.010542582467488</v>
       </c>
       <c r="D2">
-        <v>1.033644301920839</v>
+        <v>1.032337525252073</v>
       </c>
       <c r="E2">
-        <v>1.016158228503517</v>
+        <v>1.015582160485188</v>
       </c>
       <c r="F2">
-        <v>1.041028275695452</v>
+        <v>1.040109194827053</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053297861458439</v>
+        <v>1.052623746970457</v>
       </c>
       <c r="J2">
-        <v>1.033066987337202</v>
+        <v>1.032412475019503</v>
       </c>
       <c r="K2">
-        <v>1.044654002409357</v>
+        <v>1.043364005650954</v>
       </c>
       <c r="L2">
-        <v>1.027396951336164</v>
+        <v>1.02682859687318</v>
       </c>
       <c r="M2">
-        <v>1.051944148521266</v>
+        <v>1.051036655767038</v>
       </c>
       <c r="N2">
-        <v>1.014919204894208</v>
+        <v>1.015795190637662</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049682642276532</v>
+        <v>1.048964431259618</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042644526909953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041741125049935</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023562513754809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014438918667323</v>
+        <v>1.013666178916889</v>
       </c>
       <c r="D3">
-        <v>1.035791459410711</v>
+        <v>1.034350428304081</v>
       </c>
       <c r="E3">
-        <v>1.018649577841096</v>
+        <v>1.01798659636294</v>
       </c>
       <c r="F3">
-        <v>1.043311646027515</v>
+        <v>1.042298009392163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05411128598851</v>
+        <v>1.053359745720299</v>
       </c>
       <c r="J3">
-        <v>1.034543556524072</v>
+        <v>1.033791098458548</v>
       </c>
       <c r="K3">
-        <v>1.045985981522943</v>
+        <v>1.044561873675361</v>
       </c>
       <c r="L3">
-        <v>1.02904926772329</v>
+        <v>1.02839439387512</v>
       </c>
       <c r="M3">
-        <v>1.053418789162968</v>
+        <v>1.052416839403833</v>
       </c>
       <c r="N3">
-        <v>1.015415178794902</v>
+        <v>1.016162573295368</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050849705937295</v>
+        <v>1.050056740635946</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043583689928647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042585187032341</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023784654091554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016491255554861</v>
+        <v>1.015656187273395</v>
       </c>
       <c r="D4">
-        <v>1.037162951441178</v>
+        <v>1.035636721076939</v>
       </c>
       <c r="E4">
-        <v>1.02024194914173</v>
+        <v>1.019523999736787</v>
       </c>
       <c r="F4">
-        <v>1.044772246896741</v>
+        <v>1.043698690727206</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054621084393103</v>
+        <v>1.05382033949332</v>
       </c>
       <c r="J4">
-        <v>1.0354823180466</v>
+        <v>1.034667711365173</v>
       </c>
       <c r="K4">
-        <v>1.046832624285393</v>
+        <v>1.045323256853246</v>
       </c>
       <c r="L4">
-        <v>1.030102059029845</v>
+        <v>1.029392362348401</v>
       </c>
       <c r="M4">
-        <v>1.054358748455237</v>
+        <v>1.053296836334023</v>
       </c>
       <c r="N4">
-        <v>1.015730553917975</v>
+        <v>1.016396250676715</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05159360984189</v>
+        <v>1.050753189803801</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044183222273081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043124517686158</v>
+      </c>
+      <c r="S4">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T4">
+        <v>1.023923598060136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017348916585038</v>
+        <v>1.016487903332912</v>
       </c>
       <c r="D5">
-        <v>1.037738878304912</v>
+        <v>1.036177161545323</v>
       </c>
       <c r="E5">
-        <v>1.020909021586705</v>
+        <v>1.020168174762232</v>
       </c>
       <c r="F5">
-        <v>1.045384841678435</v>
+        <v>1.044286346163146</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054833482740977</v>
+        <v>1.054012214698667</v>
       </c>
       <c r="J5">
-        <v>1.035875481815964</v>
+        <v>1.035034946695161</v>
       </c>
       <c r="K5">
-        <v>1.047188471842834</v>
+        <v>1.045643558930465</v>
       </c>
       <c r="L5">
-        <v>1.030543033816532</v>
+        <v>1.029810477152064</v>
       </c>
       <c r="M5">
-        <v>1.054753052129894</v>
+        <v>1.053666159239608</v>
       </c>
       <c r="N5">
-        <v>1.015862915137722</v>
+        <v>1.016494366446809</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051905669990751</v>
+        <v>1.05104547998275</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044441961082707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04335883396255</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02398196273345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017495502459531</v>
+        <v>1.016630044047052</v>
       </c>
       <c r="D6">
-        <v>1.03783964310764</v>
+        <v>1.036271920438155</v>
       </c>
       <c r="E6">
-        <v>1.021023492963143</v>
+        <v>1.020278716715861</v>
       </c>
       <c r="F6">
-        <v>1.045490530661002</v>
+        <v>1.044387813107108</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054871340996173</v>
+        <v>1.054046583333195</v>
       </c>
       <c r="J6">
-        <v>1.035944219505773</v>
+        <v>1.035099240985666</v>
       </c>
       <c r="K6">
-        <v>1.047252273342007</v>
+        <v>1.045701343241043</v>
       </c>
       <c r="L6">
-        <v>1.030619556207954</v>
+        <v>1.029883076101096</v>
       </c>
       <c r="M6">
-        <v>1.054822092341232</v>
+        <v>1.053730969568732</v>
       </c>
       <c r="N6">
-        <v>1.015886382245949</v>
+        <v>1.016511794448905</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051960309840065</v>
+        <v>1.051096772274845</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044495765925984</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043409252191926</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023993019324754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016510862850223</v>
+        <v>1.015681551144668</v>
       </c>
       <c r="D7">
-        <v>1.037182203041068</v>
+        <v>1.035659630610118</v>
       </c>
       <c r="E7">
-        <v>1.020258227799238</v>
+        <v>1.019545409058534</v>
       </c>
       <c r="F7">
-        <v>1.044788653379545</v>
+        <v>1.04371775826411</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054630432273761</v>
+        <v>1.053832502877635</v>
       </c>
       <c r="J7">
-        <v>1.035495505666566</v>
+        <v>1.034686505892806</v>
       </c>
       <c r="K7">
-        <v>1.046848805591211</v>
+        <v>1.045343049236201</v>
       </c>
       <c r="L7">
-        <v>1.030115229225627</v>
+        <v>1.029410601118929</v>
       </c>
       <c r="M7">
-        <v>1.054372146879446</v>
+        <v>1.05331286260772</v>
       </c>
       <c r="N7">
-        <v>1.01573587769778</v>
+        <v>1.016427722663247</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05160421363628</v>
+        <v>1.050765873347689</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044214656022642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043160501576022</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02392927747856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012322623116053</v>
+        <v>1.011634092635213</v>
       </c>
       <c r="D8">
-        <v>1.034387923736529</v>
+        <v>1.033048414818879</v>
       </c>
       <c r="E8">
-        <v>1.01701348998347</v>
+        <v>1.016424937358545</v>
       </c>
       <c r="F8">
-        <v>1.04181363656816</v>
+        <v>1.040871758687551</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05358422632558</v>
+        <v>1.052893463005614</v>
       </c>
       <c r="J8">
-        <v>1.033579312333784</v>
+        <v>1.032910114233714</v>
       </c>
       <c r="K8">
-        <v>1.045121395955801</v>
+        <v>1.043798585772563</v>
       </c>
       <c r="L8">
-        <v>1.027967830696049</v>
+        <v>1.027386925428124</v>
       </c>
       <c r="M8">
-        <v>1.05245550608452</v>
+        <v>1.051525157079717</v>
       </c>
       <c r="N8">
-        <v>1.015092432712736</v>
+        <v>1.016007006169591</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.05008734232178</v>
+        <v>1.049351042724082</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042997785747088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042073448019097</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02364713388739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004669958894058</v>
+        <v>1.004221744788351</v>
       </c>
       <c r="D9">
-        <v>1.02930490778934</v>
+        <v>1.028287844484211</v>
       </c>
       <c r="E9">
-        <v>1.011128157561488</v>
+        <v>1.010750953677729</v>
       </c>
       <c r="F9">
-        <v>1.036424890165321</v>
+        <v>1.035710720976452</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051601506659675</v>
+        <v>1.051096609630609</v>
       </c>
       <c r="J9">
-        <v>1.030058879831364</v>
+        <v>1.029626298140979</v>
       </c>
       <c r="K9">
-        <v>1.041939775215539</v>
+        <v>1.040938057340117</v>
       </c>
       <c r="L9">
-        <v>1.024043231876394</v>
+        <v>1.023671979478608</v>
       </c>
       <c r="M9">
-        <v>1.048953403353139</v>
+        <v>1.04824981814957</v>
       </c>
       <c r="N9">
-        <v>1.013909237874382</v>
+        <v>1.015141012494837</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047315693886526</v>
+        <v>1.046758858362574</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040745039353794</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.0400474487548</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023102658444732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9994181223620897</v>
+        <v>0.9991629679282688</v>
       </c>
       <c r="D10">
-        <v>1.025867374714844</v>
+        <v>1.025088878670983</v>
       </c>
       <c r="E10">
-        <v>1.007126681554564</v>
+        <v>1.006918944842828</v>
       </c>
       <c r="F10">
-        <v>1.032856125757232</v>
+        <v>1.032311431312355</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050222940706096</v>
+        <v>1.049858155715981</v>
       </c>
       <c r="J10">
-        <v>1.027654845626253</v>
+        <v>1.027409834947091</v>
       </c>
       <c r="K10">
-        <v>1.039784781139378</v>
+        <v>1.03901945423083</v>
       </c>
       <c r="L10">
-        <v>1.021368442821605</v>
+        <v>1.02116438929675</v>
       </c>
       <c r="M10">
-        <v>1.046656454432818</v>
+        <v>1.046120811522099</v>
       </c>
       <c r="N10">
-        <v>1.013105980777354</v>
+        <v>1.014670122263416</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045548828387924</v>
+        <v>1.045124931750709</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039238065588538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038709291076489</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022734244579542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9973804756855913</v>
+        <v>0.9972188509092877</v>
       </c>
       <c r="D11">
-        <v>1.024743087291152</v>
+        <v>1.024058327517063</v>
       </c>
       <c r="E11">
-        <v>1.005623437951635</v>
+        <v>1.005496355277704</v>
       </c>
       <c r="F11">
-        <v>1.032214304261571</v>
+        <v>1.03173700706243</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049853626430125</v>
+        <v>1.049547640599811</v>
       </c>
       <c r="J11">
-        <v>1.026862637439126</v>
+        <v>1.026707788382465</v>
       </c>
       <c r="K11">
-        <v>1.039212998605854</v>
+        <v>1.038540366720448</v>
       </c>
       <c r="L11">
-        <v>1.020440077991929</v>
+        <v>1.020315357466498</v>
       </c>
       <c r="M11">
-        <v>1.046553244917062</v>
+        <v>1.046084241332484</v>
       </c>
       <c r="N11">
-        <v>1.012876397149254</v>
+        <v>1.014735246650137</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04589965351827</v>
+        <v>1.045528677511175</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038866469527908</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038406446054048</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022686119199015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9967015472770049</v>
+        <v>0.9965663171631132</v>
       </c>
       <c r="D12">
-        <v>1.024439511173592</v>
+        <v>1.023778247789334</v>
       </c>
       <c r="E12">
-        <v>1.005139036449213</v>
+        <v>1.005033577598757</v>
       </c>
       <c r="F12">
-        <v>1.032291296518227</v>
+        <v>1.031831039070511</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049789213128806</v>
+        <v>1.049498610125898</v>
       </c>
       <c r="J12">
-        <v>1.026646162552654</v>
+        <v>1.026516710896988</v>
       </c>
       <c r="K12">
-        <v>1.039113003581158</v>
+        <v>1.038463645643201</v>
       </c>
       <c r="L12">
-        <v>1.020168438496565</v>
+        <v>1.020064973434391</v>
       </c>
       <c r="M12">
-        <v>1.046824936208046</v>
+        <v>1.046372800521007</v>
       </c>
       <c r="N12">
-        <v>1.01283118175258</v>
+        <v>1.014803797559515</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046438374253814</v>
+        <v>1.046080859728834</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038795770501375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038352203363051</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022700607378884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9970341368101839</v>
+        <v>0.9968663981152628</v>
       </c>
       <c r="D13">
-        <v>1.024763878166606</v>
+        <v>1.024067515029944</v>
       </c>
       <c r="E13">
-        <v>1.005414295398045</v>
+        <v>1.005278729650319</v>
       </c>
       <c r="F13">
-        <v>1.032951441268865</v>
+        <v>1.032466266768903</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049969530006143</v>
+        <v>1.049657465836553</v>
       </c>
       <c r="J13">
-        <v>1.026871467518677</v>
+        <v>1.026710863689909</v>
       </c>
       <c r="K13">
-        <v>1.039389043054502</v>
+        <v>1.038705165739662</v>
       </c>
       <c r="L13">
-        <v>1.020394808031225</v>
+        <v>1.020261794939278</v>
       </c>
       <c r="M13">
-        <v>1.047431438894049</v>
+        <v>1.046954783471805</v>
       </c>
       <c r="N13">
-        <v>1.012930502743872</v>
+        <v>1.014848538062214</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047192642373615</v>
+        <v>1.04681583296235</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038988457949544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.0385202390332</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022769758780618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9977253683541339</v>
+        <v>0.9975090404483953</v>
       </c>
       <c r="D14">
-        <v>1.025275355058118</v>
+        <v>1.024528644639894</v>
       </c>
       <c r="E14">
-        <v>1.005951188950751</v>
+        <v>1.005772019497847</v>
       </c>
       <c r="F14">
-        <v>1.033676372760618</v>
+        <v>1.033155340314682</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050206004330982</v>
+        <v>1.049862717534425</v>
       </c>
       <c r="J14">
-        <v>1.027228871566003</v>
+        <v>1.027021617416996</v>
       </c>
       <c r="K14">
-        <v>1.039752219154032</v>
+        <v>1.039018734281318</v>
       </c>
       <c r="L14">
-        <v>1.02077856330379</v>
+        <v>1.020602725917858</v>
       </c>
       <c r="M14">
-        <v>1.048006144036205</v>
+        <v>1.047494144264775</v>
       </c>
       <c r="N14">
-        <v>1.013065413424524</v>
+        <v>1.014870351264599</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047819183820517</v>
+        <v>1.047414487806728</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039246649858524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038743491344471</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022843085730099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9981186214684532</v>
+        <v>0.9978777768089161</v>
       </c>
       <c r="D15">
-        <v>1.02554583867888</v>
+        <v>1.024773938696321</v>
       </c>
       <c r="E15">
-        <v>1.006252096606418</v>
+        <v>1.006051230459153</v>
       </c>
       <c r="F15">
-        <v>1.033997937927843</v>
+        <v>1.033458953029722</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050322767084199</v>
+        <v>1.04996379494348</v>
       </c>
       <c r="J15">
-        <v>1.027418313940352</v>
+        <v>1.027187484966001</v>
       </c>
       <c r="K15">
-        <v>1.039932214530517</v>
+        <v>1.039173884216916</v>
       </c>
       <c r="L15">
-        <v>1.020985785100665</v>
+        <v>1.020788626131985</v>
       </c>
       <c r="M15">
-        <v>1.048237443120162</v>
+        <v>1.047707731342875</v>
       </c>
       <c r="N15">
-        <v>1.013132234602334</v>
+        <v>1.014875192157593</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04803932655609</v>
+        <v>1.047620641524418</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03937975087111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038859594754942</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022875862984461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000276326313137</v>
+        <v>0.9999186960844454</v>
       </c>
       <c r="D16">
-        <v>1.026946248009795</v>
+        <v>1.026052214456646</v>
       </c>
       <c r="E16">
-        <v>1.00788646273926</v>
+        <v>1.007583513582699</v>
       </c>
       <c r="F16">
-        <v>1.035421026474906</v>
+        <v>1.034795042241815</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050891225718594</v>
+        <v>1.05045652213186</v>
       </c>
       <c r="J16">
-        <v>1.028402234950417</v>
+        <v>1.028058744553618</v>
       </c>
       <c r="K16">
-        <v>1.04081014568642</v>
+        <v>1.039931152914135</v>
       </c>
       <c r="L16">
-        <v>1.02207850602678</v>
+        <v>1.021780902608699</v>
       </c>
       <c r="M16">
-        <v>1.04914400810382</v>
+        <v>1.048528330977348</v>
       </c>
       <c r="N16">
-        <v>1.013456880986788</v>
+        <v>1.014897904080715</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04871738231128</v>
+        <v>1.048230736470882</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040003624532794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039398455994231</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023019034287014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001572732707161</v>
+        <v>1.001157567561129</v>
       </c>
       <c r="D17">
-        <v>1.027754939446909</v>
+        <v>1.026797884224731</v>
       </c>
       <c r="E17">
-        <v>1.008863083399533</v>
+        <v>1.008510284960595</v>
       </c>
       <c r="F17">
-        <v>1.036128747872032</v>
+        <v>1.035457901613968</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051201583051185</v>
+        <v>1.050728336759561</v>
       </c>
       <c r="J17">
-        <v>1.028970606988778</v>
+        <v>1.028571334718591</v>
       </c>
       <c r="K17">
-        <v>1.041293216808425</v>
+        <v>1.040351816213398</v>
       </c>
       <c r="L17">
-        <v>1.022717475018794</v>
+        <v>1.02237072548412</v>
       </c>
       <c r="M17">
-        <v>1.049531635835061</v>
+        <v>1.048871532474884</v>
       </c>
       <c r="N17">
-        <v>1.013635449544153</v>
+        <v>1.014932477262299</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048895521181834</v>
+        <v>1.048373708399812</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040347745627284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039698700313225</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023090818616535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002238428800703</v>
+        <v>1.001804436513804</v>
       </c>
       <c r="D18">
-        <v>1.028103146738555</v>
+        <v>1.02712442898614</v>
       </c>
       <c r="E18">
-        <v>1.009351350096307</v>
+        <v>1.008982971081134</v>
       </c>
       <c r="F18">
-        <v>1.036230007796682</v>
+        <v>1.035543607936999</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051303347022012</v>
+        <v>1.050817029749233</v>
       </c>
       <c r="J18">
-        <v>1.02921713690001</v>
+        <v>1.02879944730687</v>
       </c>
       <c r="K18">
-        <v>1.041453796318182</v>
+        <v>1.040490827572432</v>
       </c>
       <c r="L18">
-        <v>1.023010596013199</v>
+        <v>1.02264842755726</v>
       </c>
       <c r="M18">
-        <v>1.04945135505913</v>
+        <v>1.048775775706322</v>
       </c>
       <c r="N18">
-        <v>1.013697665083178</v>
+        <v>1.014938412380486</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04859598887252</v>
+        <v>1.04806183240533</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04044970688337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039784277751299</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023098430427102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002329172678589</v>
+        <v>1.001907666891498</v>
       </c>
       <c r="D19">
-        <v>1.028033199297058</v>
+        <v>1.027068606233637</v>
       </c>
       <c r="E19">
-        <v>1.009393948318269</v>
+        <v>1.009037712600244</v>
       </c>
       <c r="F19">
-        <v>1.035772708756378</v>
+        <v>1.035096025174017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051215867158363</v>
+        <v>1.050738082417427</v>
       </c>
       <c r="J19">
-        <v>1.029170360063663</v>
+        <v>1.028764591087054</v>
       </c>
       <c r="K19">
-        <v>1.041322926878466</v>
+        <v>1.040373775282807</v>
       </c>
       <c r="L19">
-        <v>1.022988792032546</v>
+        <v>1.022638529244546</v>
       </c>
       <c r="M19">
-        <v>1.04893987214478</v>
+        <v>1.048273811082014</v>
       </c>
       <c r="N19">
-        <v>1.013656508402948</v>
+        <v>1.014900297054194</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047868548914412</v>
+        <v>1.04734174867321</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040363539117881</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039708503575487</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023048405580258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00079791428905</v>
+        <v>1.000473798406795</v>
       </c>
       <c r="D20">
-        <v>1.026784808375364</v>
+        <v>1.02593166978699</v>
       </c>
       <c r="E20">
-        <v>1.008178791323039</v>
+        <v>1.007910166901839</v>
       </c>
       <c r="F20">
-        <v>1.033801879942331</v>
+        <v>1.033203901618932</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050599688584135</v>
+        <v>1.050189130818224</v>
       </c>
       <c r="J20">
-        <v>1.028298112291646</v>
+        <v>1.027986468129831</v>
       </c>
       <c r="K20">
-        <v>1.040372480972939</v>
+        <v>1.039533369074339</v>
       </c>
       <c r="L20">
-        <v>1.022079335093196</v>
+        <v>1.021815337129041</v>
       </c>
       <c r="M20">
-        <v>1.047275310193545</v>
+        <v>1.046686989691653</v>
       </c>
       <c r="N20">
-        <v>1.013323645408949</v>
+        <v>1.014726986389191</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046028123350984</v>
+        <v>1.045562533197245</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03969544275648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039118598863789</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022836048394377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9968078367503066</v>
+        <v>0.9967215523434106</v>
       </c>
       <c r="D21">
-        <v>1.024139096880076</v>
+        <v>1.023530798238534</v>
       </c>
       <c r="E21">
-        <v>1.005141862377656</v>
+        <v>1.005083767473969</v>
       </c>
       <c r="F21">
-        <v>1.030959309731794</v>
+        <v>1.030536429129777</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049502088413925</v>
+        <v>1.049244123420786</v>
       </c>
       <c r="J21">
-        <v>1.026439629946108</v>
+        <v>1.02635698649601</v>
       </c>
       <c r="K21">
-        <v>1.038677137182706</v>
+        <v>1.038079676961876</v>
       </c>
       <c r="L21">
-        <v>1.020026471032056</v>
+        <v>1.019969462187355</v>
       </c>
       <c r="M21">
-        <v>1.045376964506395</v>
+        <v>1.044961488257072</v>
       </c>
       <c r="N21">
-        <v>1.012696077495156</v>
+        <v>1.01470648170435</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044485203327987</v>
+        <v>1.044156383464454</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03849998969952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038094328689325</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022551654484033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9942649867280791</v>
+        <v>0.9943276970343902</v>
       </c>
       <c r="D22">
-        <v>1.022465563026838</v>
+        <v>1.022010635493481</v>
       </c>
       <c r="E22">
-        <v>1.003215060450084</v>
+        <v>1.003288851619389</v>
       </c>
       <c r="F22">
-        <v>1.029200343344628</v>
+        <v>1.02888734769381</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048801449991001</v>
+        <v>1.048638732745653</v>
       </c>
       <c r="J22">
-        <v>1.025258975441839</v>
+        <v>1.025318887907701</v>
       </c>
       <c r="K22">
-        <v>1.037604734297959</v>
+        <v>1.037158314456519</v>
       </c>
       <c r="L22">
-        <v>1.018723094294287</v>
+        <v>1.018795436059146</v>
       </c>
       <c r="M22">
-        <v>1.044214712249102</v>
+        <v>1.043907469565156</v>
       </c>
       <c r="N22">
-        <v>1.012298415796351</v>
+        <v>1.014686021318511</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043565363062951</v>
+        <v>1.04332220206641</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037728319982815</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037428149980768</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022370482739241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.995609786634734</v>
+        <v>0.9955837070574504</v>
       </c>
       <c r="D23">
-        <v>1.023344813564551</v>
+        <v>1.02280188426796</v>
       </c>
       <c r="E23">
-        <v>1.004232222587637</v>
+        <v>1.004227304091103</v>
       </c>
       <c r="F23">
-        <v>1.03012763765134</v>
+        <v>1.029751505041536</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049169053647068</v>
+        <v>1.04895094933119</v>
       </c>
       <c r="J23">
-        <v>1.025879794058664</v>
+        <v>1.025854844431401</v>
       </c>
       <c r="K23">
-        <v>1.038165126742241</v>
+        <v>1.037632095913473</v>
       </c>
       <c r="L23">
-        <v>1.019409422492984</v>
+        <v>1.019404598127231</v>
       </c>
       <c r="M23">
-        <v>1.04482543135288</v>
+        <v>1.044456037990633</v>
       </c>
       <c r="N23">
-        <v>1.012506557609544</v>
+        <v>1.014652964360638</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044048704081805</v>
+        <v>1.043756355374209</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038114950051848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037752600851876</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022461688633962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000824017001372</v>
+        <v>1.000501115613578</v>
       </c>
       <c r="D24">
-        <v>1.026773657587735</v>
+        <v>1.025921708867861</v>
       </c>
       <c r="E24">
-        <v>1.008192959724729</v>
+        <v>1.00792559965447</v>
       </c>
       <c r="F24">
-        <v>1.033743666905819</v>
+        <v>1.033146500641168</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050583533992246</v>
+        <v>1.050173760879741</v>
       </c>
       <c r="J24">
-        <v>1.028290383921689</v>
+        <v>1.027979889138532</v>
       </c>
       <c r="K24">
-        <v>1.040346363978229</v>
+        <v>1.0395084048322</v>
       </c>
       <c r="L24">
-        <v>1.022077709385914</v>
+        <v>1.021814947899004</v>
       </c>
       <c r="M24">
-        <v>1.047203032416895</v>
+        <v>1.046615499925593</v>
       </c>
       <c r="N24">
-        <v>1.013316471464091</v>
+        <v>1.014718080183532</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045930404286684</v>
+        <v>1.0454654150344</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039649711717777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039071011732345</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022825094555701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006693296195727</v>
+        <v>1.006173060039993</v>
       </c>
       <c r="D25">
-        <v>1.030654175405975</v>
+        <v>1.029546435988038</v>
       </c>
       <c r="E25">
-        <v>1.012680542228034</v>
+        <v>1.012239919602756</v>
       </c>
       <c r="F25">
-        <v>1.03784717834519</v>
+        <v>1.037068761399163</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052139763617031</v>
+        <v>1.051581704829056</v>
       </c>
       <c r="J25">
-        <v>1.030997484930015</v>
+        <v>1.0304944471611</v>
       </c>
       <c r="K25">
-        <v>1.042794557502381</v>
+        <v>1.041702764505253</v>
       </c>
       <c r="L25">
-        <v>1.025085147401339</v>
+        <v>1.024651152193879</v>
       </c>
       <c r="M25">
-        <v>1.0498850607283</v>
+        <v>1.049117649419657</v>
       </c>
       <c r="N25">
-        <v>1.014226166160911</v>
+        <v>1.015340735963154</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048053030979125</v>
+        <v>1.04744568241032</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041377846864013</v>
+        <v>1.04061937109871</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02325182361525</v>
       </c>
     </row>
   </sheetData>
